--- a/src/proyecto/SKU_Integrar.xlsx
+++ b/src/proyecto/SKU_Integrar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mis_entornos\minderest\src\proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DC56D8-C85F-4362-A542-415092689D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B55B0D-E195-439B-9626-0FDDDC1F564D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,10 @@
     <t>SKU</t>
   </si>
   <si>
-    <t>PRUEBA2</t>
+    <t>SWSUOP101</t>
   </si>
   <si>
-    <t>kit-gm00002</t>
+    <t>SWSUOP400</t>
   </si>
 </sst>
 </file>
@@ -354,10 +354,13 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -366,12 +369,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/src/proyecto/SKU_Integrar.xlsx
+++ b/src/proyecto/SKU_Integrar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mis_entornos\minderest\src\proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B55B0D-E195-439B-9626-0FDDDC1F564D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE4A99C-BD88-49A5-A3DE-613B4E1293FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,1311 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="435">
   <si>
     <t>SKU</t>
   </si>
   <si>
-    <t>SWSUOP101</t>
-  </si>
-  <si>
-    <t>SWSUOP400</t>
+    <t>SMR400NZAAARO</t>
+  </si>
+  <si>
+    <t>GA100256600</t>
+  </si>
+  <si>
+    <t>DWPR431BI</t>
+  </si>
+  <si>
+    <t>DWPL431VI</t>
+  </si>
+  <si>
+    <t>DWPR431DI</t>
+  </si>
+  <si>
+    <t>GA100256202</t>
+  </si>
+  <si>
+    <t>DWPL431ZI</t>
+  </si>
+  <si>
+    <t>GA100242613</t>
+  </si>
+  <si>
+    <t>JBL1064002054</t>
+  </si>
+  <si>
+    <t>GA100270010</t>
+  </si>
+  <si>
+    <t>IJINNJOOGOBLK</t>
+  </si>
+  <si>
+    <t>SMA146MZSEARO</t>
+  </si>
+  <si>
+    <t>GA100264501</t>
+  </si>
+  <si>
+    <t>SMA546EZKEARO</t>
+  </si>
+  <si>
+    <t>HU55020ANV</t>
+  </si>
+  <si>
+    <t>DWPR431SI</t>
+  </si>
+  <si>
+    <t>MS0440242052</t>
+  </si>
+  <si>
+    <t>GA100256201</t>
+  </si>
+  <si>
+    <t>GA100270011</t>
+  </si>
+  <si>
+    <t>GA100270012</t>
+  </si>
+  <si>
+    <t>DWPR431PI</t>
+  </si>
+  <si>
+    <t>SMX110NZAAL09</t>
+  </si>
+  <si>
+    <t>AU00005</t>
+  </si>
+  <si>
+    <t>DWPR431RI</t>
+  </si>
+  <si>
+    <t>SMA546EZKFARO</t>
+  </si>
+  <si>
+    <t>SMA047MZGFARO</t>
+  </si>
+  <si>
+    <t>GA100264110</t>
+  </si>
+  <si>
+    <t>HU55029045</t>
+  </si>
+  <si>
+    <t>SMA045MZGEARO</t>
+  </si>
+  <si>
+    <t>TE0007</t>
+  </si>
+  <si>
+    <t>HU55020ANU</t>
+  </si>
+  <si>
+    <t>XIBHR6923GL</t>
+  </si>
+  <si>
+    <t>DWPR431YI</t>
+  </si>
+  <si>
+    <t>SMA346MLGBARO</t>
+  </si>
+  <si>
+    <t>IJINNJOOGOPNK</t>
+  </si>
+  <si>
+    <t>JBLT520BTBLKA</t>
+  </si>
+  <si>
+    <t>TE0018</t>
+  </si>
+  <si>
+    <t>JBL1064002023</t>
+  </si>
+  <si>
+    <t>GA100206401</t>
+  </si>
+  <si>
+    <t>GA100270111</t>
+  </si>
+  <si>
+    <t>AU00006</t>
+  </si>
+  <si>
+    <t>DWPR431GI</t>
+  </si>
+  <si>
+    <t>SMR400NZWAARO</t>
+  </si>
+  <si>
+    <t>TE0019</t>
+  </si>
+  <si>
+    <t>XIQBH4195GL</t>
+  </si>
+  <si>
+    <t>GA100264111</t>
+  </si>
+  <si>
+    <t>GA100264130</t>
+  </si>
+  <si>
+    <t>GA100264133</t>
+  </si>
+  <si>
+    <t>SMR930NZKAARO</t>
+  </si>
+  <si>
+    <t>IJINNJOOGOBLU</t>
+  </si>
+  <si>
+    <t>SLEBG207B</t>
+  </si>
+  <si>
+    <t>SLEBP201W</t>
+  </si>
+  <si>
+    <t>XIMZB0BX0EU</t>
+  </si>
+  <si>
+    <t>SMA145MLGEARO</t>
+  </si>
+  <si>
+    <t>XIQBH4197GL</t>
+  </si>
+  <si>
+    <t>GA100206400</t>
+  </si>
+  <si>
+    <t>GA100243001</t>
+  </si>
+  <si>
+    <t>SMR930NZEAARO</t>
+  </si>
+  <si>
+    <t>SMR940NZSAARO</t>
+  </si>
+  <si>
+    <t>SMSPLFF3CLAXX</t>
+  </si>
+  <si>
+    <t>DWPR431LI</t>
+  </si>
+  <si>
+    <t>SMA042MZKFARO</t>
+  </si>
+  <si>
+    <t>XIMZB0CQLEU</t>
+  </si>
+  <si>
+    <t>SMG990EZWAARO</t>
+  </si>
+  <si>
+    <t>SMA042MZCAARO</t>
+  </si>
+  <si>
+    <t>BO8000409</t>
+  </si>
+  <si>
+    <t>GA100242711</t>
+  </si>
+  <si>
+    <t>GA100264132</t>
+  </si>
+  <si>
+    <t>GA100270110</t>
+  </si>
+  <si>
+    <t>XIBHR6926GL</t>
+  </si>
+  <si>
+    <t>SHT1120305004</t>
+  </si>
+  <si>
+    <t>SLEBG207G</t>
+  </si>
+  <si>
+    <t>TVHK09603561</t>
+  </si>
+  <si>
+    <t>XIMZB0CQKEU</t>
+  </si>
+  <si>
+    <t>SMA245MLGOARO</t>
+  </si>
+  <si>
+    <t>XIMZB0CQMEU</t>
+  </si>
+  <si>
+    <t>TE0001</t>
+  </si>
+  <si>
+    <t>SMA146MLGEARO</t>
+  </si>
+  <si>
+    <t>XIMZB0E6JAR</t>
+  </si>
+  <si>
+    <t>JBLFLIP6TEALA</t>
+  </si>
+  <si>
+    <t>JBL701535</t>
+  </si>
+  <si>
+    <t>SLSPT80WLB</t>
+  </si>
+  <si>
+    <t>JBLFLIP6SQUAD</t>
+  </si>
+  <si>
+    <t>SNROAMW</t>
+  </si>
+  <si>
+    <t>GA100224701</t>
+  </si>
+  <si>
+    <t>GA100242911</t>
+  </si>
+  <si>
+    <t>GA100247200</t>
+  </si>
+  <si>
+    <t>GA100264113</t>
+  </si>
+  <si>
+    <t>GA100264131</t>
+  </si>
+  <si>
+    <t>GA100270112</t>
+  </si>
+  <si>
+    <t>GA100281010</t>
+  </si>
+  <si>
+    <t>GA100281011</t>
+  </si>
+  <si>
+    <t>HU55029046</t>
+  </si>
+  <si>
+    <t>SMR940NZKAARO</t>
+  </si>
+  <si>
+    <t>SMUN50CU7000G</t>
+  </si>
+  <si>
+    <t>JBLWBUDSBLKAM</t>
+  </si>
+  <si>
+    <t>SLEBP201B</t>
+  </si>
+  <si>
+    <t>TF9205019</t>
+  </si>
+  <si>
+    <t>TF9205019B</t>
+  </si>
+  <si>
+    <t>SMA045MZKFARO</t>
+  </si>
+  <si>
+    <t>XIMZB0E6IAR</t>
+  </si>
+  <si>
+    <t>TE0002</t>
+  </si>
+  <si>
+    <t>TE0003</t>
+  </si>
+  <si>
+    <t>TE0005</t>
+  </si>
+  <si>
+    <t>TE0008</t>
+  </si>
+  <si>
+    <t>TE0011</t>
+  </si>
+  <si>
+    <t>TE0015</t>
+  </si>
+  <si>
+    <t>SMA042MZKAARO</t>
+  </si>
+  <si>
+    <t>XIMZB0E6LAR</t>
+  </si>
+  <si>
+    <t>FRD0261585064</t>
+  </si>
+  <si>
+    <t>NVD0541085053</t>
+  </si>
+  <si>
+    <t>NWF0941333026</t>
+  </si>
+  <si>
+    <t>SHT1121805020</t>
+  </si>
+  <si>
+    <t>SNROAMB</t>
+  </si>
+  <si>
+    <t>JBL1064002051</t>
+  </si>
+  <si>
+    <t>SLBTS55WLB</t>
+  </si>
+  <si>
+    <t>SLBTS55WLBL</t>
+  </si>
+  <si>
+    <t>SLBTS55WLP</t>
+  </si>
+  <si>
+    <t>BO8583662310</t>
+  </si>
+  <si>
+    <t>SMMXST50B</t>
+  </si>
+  <si>
+    <t>AU00003</t>
+  </si>
+  <si>
+    <t>TVHK09603609</t>
+  </si>
+  <si>
+    <t>TVHK09603608</t>
+  </si>
+  <si>
+    <t>GA100206301</t>
+  </si>
+  <si>
+    <t>GA100220000</t>
+  </si>
+  <si>
+    <t>GA100242712</t>
+  </si>
+  <si>
+    <t>GA100242910</t>
+  </si>
+  <si>
+    <t>GA100243010</t>
+  </si>
+  <si>
+    <t>GA100249610</t>
+  </si>
+  <si>
+    <t>GA100262700</t>
+  </si>
+  <si>
+    <t>GA100281013</t>
+  </si>
+  <si>
+    <t>SMR960NZKAARO</t>
+  </si>
+  <si>
+    <t>XIBHR6013GL</t>
+  </si>
+  <si>
+    <t>AKG708447</t>
+  </si>
+  <si>
+    <t>JBL1060344036</t>
+  </si>
+  <si>
+    <t>JBLQUA50</t>
+  </si>
+  <si>
+    <t>JBLT110BLK</t>
+  </si>
+  <si>
+    <t>JBLT215TWSWHT</t>
+  </si>
+  <si>
+    <t>JBLV300TWSBLK</t>
+  </si>
+  <si>
+    <t>MS0440242051</t>
+  </si>
+  <si>
+    <t>SHT1120344005</t>
+  </si>
+  <si>
+    <t>SMIA500BBEGWW</t>
+  </si>
+  <si>
+    <t>SMR177NZKAARO</t>
+  </si>
+  <si>
+    <t>SMR177NZWAARO</t>
+  </si>
+  <si>
+    <t>TF9205023</t>
+  </si>
+  <si>
+    <t>SMF731BZAKARO</t>
+  </si>
+  <si>
+    <t>SMA146MZKEARO</t>
+  </si>
+  <si>
+    <t>SMS711BZALARO</t>
+  </si>
+  <si>
+    <t>SMF721BLVJARO</t>
+  </si>
+  <si>
+    <t>SMF731BZEJARO</t>
+  </si>
+  <si>
+    <t>SMF946BLBLARO</t>
+  </si>
+  <si>
+    <t>SMS911BZKMARO</t>
+  </si>
+  <si>
+    <t>TE0004</t>
+  </si>
+  <si>
+    <t>TE0006</t>
+  </si>
+  <si>
+    <t>TE0017</t>
+  </si>
+  <si>
+    <t>SMF721BZAKARO</t>
+  </si>
+  <si>
+    <t>SMA236MZWEARO</t>
+  </si>
+  <si>
+    <t>FRD0261585066</t>
+  </si>
+  <si>
+    <t>MARGBLS2049D</t>
+  </si>
+  <si>
+    <t>NWF0941333028</t>
+  </si>
+  <si>
+    <t>NWF0941333033</t>
+  </si>
+  <si>
+    <t>SHT1121805016</t>
+  </si>
+  <si>
+    <t>SHT1121805021</t>
+  </si>
+  <si>
+    <t>JBLFLIP6WHTAM</t>
+  </si>
+  <si>
+    <t>JBLFLIP6BLACK</t>
+  </si>
+  <si>
+    <t>JBLCHARGE5RED</t>
+  </si>
+  <si>
+    <t>AU00002</t>
+  </si>
+  <si>
+    <t>JBLCHARGE5BLU</t>
+  </si>
+  <si>
+    <t>BO8583662110</t>
+  </si>
+  <si>
+    <t>JBLCHARGE5BLK</t>
+  </si>
+  <si>
+    <t>BO8583650100</t>
+  </si>
+  <si>
+    <t>JBL701546</t>
+  </si>
+  <si>
+    <t>TVHK09603604</t>
+  </si>
+  <si>
+    <t>MST0442344001</t>
+  </si>
+  <si>
+    <t>MST0440246017</t>
+  </si>
+  <si>
+    <t>TVHK09603588</t>
+  </si>
+  <si>
+    <t>TVHK09603619</t>
+  </si>
+  <si>
+    <t>TVHK09603620</t>
+  </si>
+  <si>
+    <t>BO8583652310</t>
+  </si>
+  <si>
+    <t>XIQBH4227GL</t>
+  </si>
+  <si>
+    <t>PV5601147</t>
+  </si>
+  <si>
+    <t>GA100215605</t>
+  </si>
+  <si>
+    <t>GA100223801</t>
+  </si>
+  <si>
+    <t>GA100247201</t>
+  </si>
+  <si>
+    <t>GA100247202</t>
+  </si>
+  <si>
+    <t>GA100262701</t>
+  </si>
+  <si>
+    <t>GA100264112</t>
+  </si>
+  <si>
+    <t>GA100280930</t>
+  </si>
+  <si>
+    <t>GA100280931</t>
+  </si>
+  <si>
+    <t>GA100281014</t>
+  </si>
+  <si>
+    <t>GA100281015</t>
+  </si>
+  <si>
+    <t>SMR890NZSAARO</t>
+  </si>
+  <si>
+    <t>SMR920NZKAARO</t>
+  </si>
+  <si>
+    <t>SMR950NZKAARO</t>
+  </si>
+  <si>
+    <t>APPMM9F3LEA</t>
+  </si>
+  <si>
+    <t>IJTAB701</t>
+  </si>
+  <si>
+    <t>SMX210NZSAARO</t>
+  </si>
+  <si>
+    <t>SM70AU7000GCZ</t>
+  </si>
+  <si>
+    <t>SMQN98Q80CAGC</t>
+  </si>
+  <si>
+    <t>SMUN65BU8000G</t>
+  </si>
+  <si>
+    <t>SMUN70CU7000G</t>
+  </si>
+  <si>
+    <t>SMUN75BU8000G</t>
+  </si>
+  <si>
+    <t>TF9205021</t>
+  </si>
+  <si>
+    <t>SHT1120344003</t>
+  </si>
+  <si>
+    <t>APPMME73BEA</t>
+  </si>
+  <si>
+    <t>PIOSECL722TWH</t>
+  </si>
+  <si>
+    <t>PIOSEMJ503L</t>
+  </si>
+  <si>
+    <t>PIOSEE3ML</t>
+  </si>
+  <si>
+    <t>PIOSEMJ503R</t>
+  </si>
+  <si>
+    <t>SHT1120344002</t>
+  </si>
+  <si>
+    <t>SHT1120344004</t>
+  </si>
+  <si>
+    <t>BO8057460020</t>
+  </si>
+  <si>
+    <t>CA9011181NA</t>
+  </si>
+  <si>
+    <t>JBLQUA300BLK</t>
+  </si>
+  <si>
+    <t>PIOSEMJ503W</t>
+  </si>
+  <si>
+    <t>JBLQUAONE</t>
+  </si>
+  <si>
+    <t>XIBHR4197CN</t>
+  </si>
+  <si>
+    <t>AKG708445</t>
+  </si>
+  <si>
+    <t>JBL1060305008</t>
+  </si>
+  <si>
+    <t>JBLT110WHT</t>
+  </si>
+  <si>
+    <t>JBLQU100BLKAM</t>
+  </si>
+  <si>
+    <t>PS5907</t>
+  </si>
+  <si>
+    <t>JBLAWAREBlue</t>
+  </si>
+  <si>
+    <t>JBLT110BTBLK</t>
+  </si>
+  <si>
+    <t>JBL1060344008</t>
+  </si>
+  <si>
+    <t>SMR510NZAAARO</t>
+  </si>
+  <si>
+    <t>TVHK09603562</t>
+  </si>
+  <si>
+    <t>TVHK09603615</t>
+  </si>
+  <si>
+    <t>TVHK09603642</t>
+  </si>
+  <si>
+    <t>MST0440344003</t>
+  </si>
+  <si>
+    <t>MST0440344004</t>
+  </si>
+  <si>
+    <t>JBLQUANTUM610</t>
+  </si>
+  <si>
+    <t>JBLQUANTUM910</t>
+  </si>
+  <si>
+    <t>JBLQUANTUMTWS</t>
+  </si>
+  <si>
+    <t>JBLTOURONEBL</t>
+  </si>
+  <si>
+    <t>SMR510NZWAARO</t>
+  </si>
+  <si>
+    <t>TE0016</t>
+  </si>
+  <si>
+    <t>SMS711BLGLARO</t>
+  </si>
+  <si>
+    <t>SMF731BZEKARO</t>
+  </si>
+  <si>
+    <t>SMS918BZKMARO</t>
+  </si>
+  <si>
+    <t>SMA045MZWEARO</t>
+  </si>
+  <si>
+    <t>XIMZB0BX2EU</t>
+  </si>
+  <si>
+    <t>SMG990EZAAARO</t>
+  </si>
+  <si>
+    <t>SMA042MZCFARO</t>
+  </si>
+  <si>
+    <t>XIMZB0BWWEU</t>
+  </si>
+  <si>
+    <t>SMA042MLBAARO</t>
+  </si>
+  <si>
+    <t>SMS916BZKLARO</t>
+  </si>
+  <si>
+    <t>SMS711BZPLARO</t>
+  </si>
+  <si>
+    <t>SMA235MZKEARO</t>
+  </si>
+  <si>
+    <t>SMA035MZKAARO</t>
+  </si>
+  <si>
+    <t>SMF946BLBMARO</t>
+  </si>
+  <si>
+    <t>TE0009</t>
+  </si>
+  <si>
+    <t>TE0010</t>
+  </si>
+  <si>
+    <t>TE0013</t>
+  </si>
+  <si>
+    <t>TE0014</t>
+  </si>
+  <si>
+    <t>SMF731BLGJARO</t>
+  </si>
+  <si>
+    <t>SMF946BZKLARO</t>
+  </si>
+  <si>
+    <t>HYTNOTEAWB2BK</t>
+  </si>
+  <si>
+    <t>SMNP750XFGKB1</t>
+  </si>
+  <si>
+    <t>SMNP750XFGKB2</t>
+  </si>
+  <si>
+    <t>SMNP750XFGKB3</t>
+  </si>
+  <si>
+    <t>SMP940XFGKA1A</t>
+  </si>
+  <si>
+    <t>FRD0261585088</t>
+  </si>
+  <si>
+    <t>NVD0541085042</t>
+  </si>
+  <si>
+    <t>AKG708451</t>
+  </si>
+  <si>
+    <t>AKG708454</t>
+  </si>
+  <si>
+    <t>NWF0941333004</t>
+  </si>
+  <si>
+    <t>NWF0941333006</t>
+  </si>
+  <si>
+    <t>NWF0941333010</t>
+  </si>
+  <si>
+    <t>NWF0941333002</t>
+  </si>
+  <si>
+    <t>NWF0941333011</t>
+  </si>
+  <si>
+    <t>SHT1121805017</t>
+  </si>
+  <si>
+    <t>SHT1121805015</t>
+  </si>
+  <si>
+    <t>BHF0090733002</t>
+  </si>
+  <si>
+    <t>NWF0941333009</t>
+  </si>
+  <si>
+    <t>NWF0941333012</t>
+  </si>
+  <si>
+    <t>FRD0261585067</t>
+  </si>
+  <si>
+    <t>SET1070733002</t>
+  </si>
+  <si>
+    <t>SKP4370609</t>
+  </si>
+  <si>
+    <t>NWF0941333037</t>
+  </si>
+  <si>
+    <t>NWF0941333030</t>
+  </si>
+  <si>
+    <t>NWF0941333031</t>
+  </si>
+  <si>
+    <t>FRD0261585063</t>
+  </si>
+  <si>
+    <t>FRD0261585087</t>
+  </si>
+  <si>
+    <t>FRD0261585089</t>
+  </si>
+  <si>
+    <t>NVD0541085016</t>
+  </si>
+  <si>
+    <t>NVD0541085024</t>
+  </si>
+  <si>
+    <t>AKG708311</t>
+  </si>
+  <si>
+    <t>NWF0931333012</t>
+  </si>
+  <si>
+    <t>NWF0941333034</t>
+  </si>
+  <si>
+    <t>NWF0941333036</t>
+  </si>
+  <si>
+    <t>SMMXST40B</t>
+  </si>
+  <si>
+    <t>SMHWC400ZB</t>
+  </si>
+  <si>
+    <t>TVHK09603603</t>
+  </si>
+  <si>
+    <t>TVHK09603651</t>
+  </si>
+  <si>
+    <t>MST0440242092</t>
+  </si>
+  <si>
+    <t>PV5600919</t>
+  </si>
+  <si>
+    <t>JBLCHARGE5CA</t>
+  </si>
+  <si>
+    <t>BO8000413</t>
+  </si>
+  <si>
+    <t>BO8000515</t>
+  </si>
+  <si>
+    <t>JBLFLIP6GRAY</t>
+  </si>
+  <si>
+    <t>TVHK09603559</t>
+  </si>
+  <si>
+    <t>TVHK09603611</t>
+  </si>
+  <si>
+    <t>AU00004</t>
+  </si>
+  <si>
+    <t>TF8000906</t>
+  </si>
+  <si>
+    <t>JBLFLIP6PINK</t>
+  </si>
+  <si>
+    <t>JBLFLIP6RED</t>
+  </si>
+  <si>
+    <t>TVHK09603621</t>
+  </si>
+  <si>
+    <t>JBLFLIP6BLUE</t>
+  </si>
+  <si>
+    <t>TVHK09603547</t>
+  </si>
+  <si>
+    <t>TVHK09603553</t>
+  </si>
+  <si>
+    <t>TVHK09603652</t>
+  </si>
+  <si>
+    <t>PV5601433</t>
+  </si>
+  <si>
+    <t>TVHK09603610</t>
+  </si>
+  <si>
+    <t>TVHK09603639</t>
+  </si>
+  <si>
+    <t>BO7953452300</t>
+  </si>
+  <si>
+    <t>JBLGO3PNK</t>
+  </si>
+  <si>
+    <t>PV5600906</t>
+  </si>
+  <si>
+    <t>TVHK09603602</t>
+  </si>
+  <si>
+    <t>JBL701530</t>
+  </si>
+  <si>
+    <t>JBL701543</t>
+  </si>
+  <si>
+    <t>JBLGO3WHT</t>
+  </si>
+  <si>
+    <t>TVHK09603605</t>
+  </si>
+  <si>
+    <t>JBL1064002032</t>
+  </si>
+  <si>
+    <t>JBLGO3BLK</t>
+  </si>
+  <si>
+    <t>JBLGO3RED</t>
+  </si>
+  <si>
+    <t>JBLGO3SQUADAM</t>
+  </si>
+  <si>
+    <t>MST0440246011</t>
+  </si>
+  <si>
+    <t>TVHK09603653</t>
+  </si>
+  <si>
+    <t>TF6000755</t>
+  </si>
+  <si>
+    <t>TF6000752</t>
+  </si>
+  <si>
+    <t>TF8000905</t>
+  </si>
+  <si>
+    <t>JBL701542</t>
+  </si>
+  <si>
+    <t>PV5601500</t>
+  </si>
+  <si>
+    <t>JBL701539</t>
+  </si>
+  <si>
+    <t>BO7953452100</t>
+  </si>
+  <si>
+    <t>TVHK09603616</t>
+  </si>
+  <si>
+    <t>JBLGOESBLUA</t>
+  </si>
+  <si>
+    <t>JBLFLIP6VERD</t>
+  </si>
+  <si>
+    <t>JBL701538</t>
+  </si>
+  <si>
+    <t>BO8659830100</t>
+  </si>
+  <si>
+    <t>BO8000251</t>
+  </si>
+  <si>
+    <t>PV5600903</t>
+  </si>
+  <si>
+    <t>MST0440242072</t>
+  </si>
+  <si>
+    <t>JBLCHARGEE2BL</t>
+  </si>
+  <si>
+    <t>XIBHR4802GL</t>
+  </si>
+  <si>
+    <t>SMHWC450ZB</t>
+  </si>
+  <si>
+    <t>TF6000752W</t>
+  </si>
+  <si>
+    <t>GA100223900</t>
+  </si>
+  <si>
+    <t>GA100264502</t>
+  </si>
+  <si>
+    <t>GA100229300</t>
+  </si>
+  <si>
+    <t>GA100256401</t>
+  </si>
+  <si>
+    <t>SMR890NZKAARO</t>
+  </si>
+  <si>
+    <t>APPMKQ63LEA</t>
+  </si>
+  <si>
+    <t>GA100253911</t>
+  </si>
+  <si>
+    <t>GA100253913</t>
+  </si>
+  <si>
+    <t>GA100254117</t>
+  </si>
+  <si>
+    <t>GA100257210</t>
+  </si>
+  <si>
+    <t>GA100184713</t>
+  </si>
+  <si>
+    <t>GA100224100</t>
+  </si>
+  <si>
+    <t>GA100224102</t>
+  </si>
+  <si>
+    <t>GA100206311</t>
+  </si>
+  <si>
+    <t>GA100242612</t>
+  </si>
+  <si>
+    <t>GA100256603</t>
+  </si>
+  <si>
+    <t>GA100239400</t>
+  </si>
+  <si>
+    <t>GA100242611</t>
+  </si>
+  <si>
+    <t>GA100244512</t>
+  </si>
+  <si>
+    <t>GA100256303</t>
+  </si>
+  <si>
+    <t>GA100257211</t>
+  </si>
+  <si>
+    <t>GA100263861</t>
+  </si>
+  <si>
+    <t>GA100263871</t>
+  </si>
+  <si>
+    <t>GA100263870</t>
+  </si>
+  <si>
+    <t>SMR900NZAAARO</t>
+  </si>
+  <si>
+    <t>SMR220NZKAARO</t>
+  </si>
+  <si>
+    <t>XIWS1S</t>
+  </si>
+  <si>
+    <t>GA100215601</t>
+  </si>
+  <si>
+    <t>GA100229305</t>
+  </si>
+  <si>
+    <t>GA100242912</t>
+  </si>
+  <si>
+    <t>GA100254037</t>
+  </si>
+  <si>
+    <t>GA100215606</t>
+  </si>
+  <si>
+    <t>GA100200607</t>
+  </si>
+  <si>
+    <t>GA100220001</t>
+  </si>
+  <si>
+    <t>GA100244513</t>
+  </si>
+  <si>
+    <t>GA100254011</t>
+  </si>
+  <si>
+    <t>GA100254101</t>
+  </si>
+  <si>
+    <t>GA100256300</t>
+  </si>
+  <si>
+    <t>GA100229302</t>
+  </si>
+  <si>
+    <t>GA100244510</t>
+  </si>
+  <si>
+    <t>GA100244511</t>
+  </si>
+  <si>
+    <t>GA100217202</t>
+  </si>
+  <si>
+    <t>GA100263860</t>
+  </si>
+  <si>
+    <t>GA100257212</t>
+  </si>
+  <si>
+    <t>GA100264813</t>
+  </si>
+  <si>
+    <t>GA100273002</t>
+  </si>
+  <si>
+    <t>GA100273003</t>
+  </si>
+  <si>
+    <t>GA100273004</t>
+  </si>
+  <si>
+    <t>GA100280932</t>
+  </si>
+  <si>
+    <t>GA100281012</t>
+  </si>
+  <si>
+    <t>XIBHR5560GL</t>
+  </si>
+  <si>
+    <t>GA100220002</t>
+  </si>
+  <si>
+    <t>SMR950NZSAARO</t>
+  </si>
+  <si>
+    <t>SMR960NZSAARO</t>
+  </si>
+  <si>
+    <t>SMX900NZAIARO</t>
+  </si>
+  <si>
+    <t>SMT385MZKAARO</t>
+  </si>
+  <si>
+    <t>SMT220NZADARO</t>
+  </si>
+  <si>
+    <t>SMT220NZSDARO</t>
+  </si>
+  <si>
+    <t>APPMHNH3LEA</t>
+  </si>
+  <si>
+    <t>APPMHNJ3LEA</t>
+  </si>
+  <si>
+    <t>APPMK7M3LEA</t>
+  </si>
+  <si>
+    <t>APPMK7P3LEA</t>
+  </si>
+  <si>
+    <t>APPMK7V3LEA</t>
+  </si>
+  <si>
+    <t>XIBHR4245GL</t>
+  </si>
+  <si>
+    <t>IJSUPERBWHT</t>
+  </si>
+  <si>
+    <t>SMX700NZALARO</t>
+  </si>
+  <si>
+    <t>SMX800NZSVARO</t>
+  </si>
+  <si>
+    <t>SMX710NZADARO</t>
+  </si>
+  <si>
+    <t>SMX710NZEDARO</t>
+  </si>
+  <si>
+    <t>SMX810NZAHARO</t>
+  </si>
+  <si>
+    <t>SMX810NZEHARO</t>
+  </si>
+  <si>
+    <t>SMX510NZADARO</t>
+  </si>
+  <si>
+    <t>SMX510NZAHARO</t>
+  </si>
+  <si>
+    <t>SMX710NZAHARO</t>
+  </si>
+  <si>
+    <t>SMQN85QN800BG</t>
+  </si>
+  <si>
+    <t>SMQN65QN85BAG</t>
+  </si>
+  <si>
+    <t>SMQN85Q70AAGC</t>
+  </si>
+  <si>
+    <t>SMQN65Q65BAGC</t>
+  </si>
+  <si>
+    <t>SMUN50AU7000G</t>
+  </si>
+  <si>
+    <t>SM32T4300AGCZ</t>
+  </si>
+  <si>
+    <t>SMQN55Q65BAGC</t>
+  </si>
+  <si>
+    <t>SMQN55Q65CAGC</t>
+  </si>
+  <si>
+    <t>SM75QN85CAGCZ</t>
+  </si>
+  <si>
+    <t>SMLSP7TGAXZB</t>
+  </si>
+  <si>
+    <t>SMS711BZWMARO</t>
+  </si>
+  <si>
+    <t>GA100256602</t>
   </si>
 </sst>
 </file>
@@ -57,7 +1353,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -65,12 +1361,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,10 +1663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A435"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2:A435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -368,13 +1680,2173 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>434</v>
       </c>
     </row>
   </sheetData>

--- a/src/proyecto/SKU_Integrar.xlsx
+++ b/src/proyecto/SKU_Integrar.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mis_entornos\minderest\src\proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdelvecchio\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE4A99C-BD88-49A5-A3DE-613B4E1293FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD5A4BA8-CE91-4C1B-A0D4-C36D8C498A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B361EF23-4051-4035-88A4-9852A707035A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,1311 +25,2616 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="870">
   <si>
     <t>SKU</t>
   </si>
   <si>
+    <t>COI10BL</t>
+  </si>
+  <si>
+    <t>COL10B</t>
+  </si>
+  <si>
+    <t>COL10G</t>
+  </si>
+  <si>
+    <t>COL10RG</t>
+  </si>
+  <si>
+    <t>COV33P</t>
+  </si>
+  <si>
+    <t>COHD8UBKB</t>
+  </si>
+  <si>
+    <t>COM41G</t>
+  </si>
+  <si>
+    <t>COHD8UG</t>
+  </si>
+  <si>
+    <t>COC61G</t>
+  </si>
+  <si>
+    <t>COC61BL</t>
+  </si>
+  <si>
+    <t>COI20S</t>
+  </si>
+  <si>
+    <t>COC60G</t>
+  </si>
+  <si>
+    <t>COI20RG</t>
+  </si>
+  <si>
+    <t>COP28PLUSBL</t>
+  </si>
+  <si>
+    <t>FX6883</t>
+  </si>
+  <si>
+    <t>GMPKCCO1943</t>
+  </si>
+  <si>
+    <t>COM41BL</t>
+  </si>
+  <si>
+    <t>FX6882</t>
+  </si>
+  <si>
+    <t>JBL1064002054</t>
+  </si>
+  <si>
+    <t>COP60G</t>
+  </si>
+  <si>
+    <t>COM41V</t>
+  </si>
+  <si>
+    <t>WDK208BL</t>
+  </si>
+  <si>
+    <t>COC60BL</t>
+  </si>
+  <si>
+    <t>FX6814</t>
+  </si>
+  <si>
+    <t>FX7009</t>
+  </si>
+  <si>
+    <t>FX7011</t>
+  </si>
+  <si>
+    <t>SMA546EZKEARO</t>
+  </si>
+  <si>
+    <t>COI10RG</t>
+  </si>
+  <si>
+    <t>SMA146MZSEARO</t>
+  </si>
+  <si>
+    <t>COC61RG</t>
+  </si>
+  <si>
+    <t>COP30S</t>
+  </si>
+  <si>
+    <t>FX6942</t>
+  </si>
+  <si>
+    <t>GA100256600</t>
+  </si>
+  <si>
+    <t>COP20PBL</t>
+  </si>
+  <si>
+    <t>FX7007</t>
+  </si>
+  <si>
+    <t>COI10S</t>
+  </si>
+  <si>
+    <t>FX7173</t>
+  </si>
+  <si>
+    <t>COP71B</t>
+  </si>
+  <si>
+    <t>FX5488</t>
+  </si>
+  <si>
+    <t>LILTCV100</t>
+  </si>
+  <si>
+    <t>WDS186B</t>
+  </si>
+  <si>
+    <t>GMBECHS2217</t>
+  </si>
+  <si>
+    <t>SMA045MZGEARO</t>
+  </si>
+  <si>
+    <t>FX6815</t>
+  </si>
+  <si>
+    <t>SMA546EZKFARO</t>
+  </si>
+  <si>
+    <t>LILCI080</t>
+  </si>
+  <si>
+    <t>XIQBH4195GL</t>
+  </si>
+  <si>
+    <t>WDT191</t>
+  </si>
+  <si>
+    <t>GMBECCP758</t>
+  </si>
+  <si>
+    <t>WDK50BL</t>
+  </si>
+  <si>
+    <t>COP60B</t>
+  </si>
+  <si>
+    <t>GMBECHS2340</t>
+  </si>
+  <si>
+    <t>XIQBH4197GL</t>
+  </si>
+  <si>
+    <t>GA100247202</t>
+  </si>
+  <si>
+    <t>DWPR431YI</t>
+  </si>
+  <si>
+    <t>GA100263861</t>
+  </si>
+  <si>
+    <t>JBL1064002023</t>
+  </si>
+  <si>
+    <t>BO8000409</t>
+  </si>
+  <si>
+    <t>JBL701535</t>
+  </si>
+  <si>
+    <t>FX5601</t>
+  </si>
+  <si>
+    <t>SLEBG207G</t>
+  </si>
+  <si>
+    <t>GMPKCCO1971</t>
+  </si>
+  <si>
+    <t>AKG708311</t>
+  </si>
+  <si>
+    <t>SLEBP201B</t>
+  </si>
+  <si>
+    <t>WDK28BL</t>
+  </si>
+  <si>
+    <t>COI30R</t>
+  </si>
+  <si>
+    <t>PS42218</t>
+  </si>
+  <si>
+    <t>LULQ390</t>
+  </si>
+  <si>
+    <t>GA100206301</t>
+  </si>
+  <si>
+    <t>COV33G</t>
+  </si>
+  <si>
+    <t>PS4351591</t>
+  </si>
+  <si>
+    <t>JBLGO3BLK</t>
+  </si>
+  <si>
+    <t>COL10BM</t>
+  </si>
+  <si>
+    <t>WDS298P</t>
+  </si>
+  <si>
+    <t>SLEBP201W</t>
+  </si>
+  <si>
+    <t>CAL57003FGR</t>
+  </si>
+  <si>
+    <t>GMBECHD2216</t>
+  </si>
+  <si>
+    <t>LILCIPAR2000</t>
+  </si>
+  <si>
+    <t>PHI881</t>
+  </si>
+  <si>
+    <t>SLSPT80WLB</t>
+  </si>
+  <si>
+    <t>GA100244511</t>
+  </si>
+  <si>
+    <t>COP60BL</t>
+  </si>
+  <si>
+    <t>CAL56003ARB</t>
+  </si>
+  <si>
+    <t>PHIHP840140</t>
+  </si>
+  <si>
+    <t>COLAND2SBL</t>
+  </si>
+  <si>
+    <t>GA100263871</t>
+  </si>
+  <si>
+    <t>FX6890</t>
+  </si>
+  <si>
+    <t>DWPR431LI</t>
+  </si>
+  <si>
+    <t>CAL32224ARG</t>
+  </si>
+  <si>
+    <t>SNROAMW</t>
+  </si>
+  <si>
+    <t>AKG708445</t>
+  </si>
+  <si>
+    <t>MS0440242052</t>
+  </si>
+  <si>
+    <t>GMBECCP1218</t>
+  </si>
+  <si>
+    <t>SMA047MZGFARO</t>
+  </si>
+  <si>
+    <t>PS58774</t>
+  </si>
+  <si>
+    <t>SMR920NZKAARO</t>
+  </si>
+  <si>
+    <t>COP8GTG</t>
+  </si>
+  <si>
+    <t>SLEBG207B</t>
+  </si>
+  <si>
+    <t>CAL36024ARG</t>
+  </si>
+  <si>
+    <t>CAL14258</t>
+  </si>
+  <si>
+    <t>GMBECHS2280</t>
+  </si>
+  <si>
+    <t>XIMZB0BX0EU</t>
+  </si>
+  <si>
+    <t>SMG990EZWAARO</t>
+  </si>
+  <si>
+    <t>GA100280931</t>
+  </si>
+  <si>
+    <t>WDU2WS</t>
+  </si>
+  <si>
+    <t>SHT1120305004</t>
+  </si>
+  <si>
+    <t>CAL15784</t>
+  </si>
+  <si>
+    <t>PHIBHD35010</t>
+  </si>
+  <si>
+    <t>SNROAMB</t>
+  </si>
+  <si>
+    <t>JBLFLIP6TEALA</t>
+  </si>
+  <si>
+    <t>SLBTS55WLB</t>
+  </si>
+  <si>
+    <t>JBLGO3BLUE</t>
+  </si>
+  <si>
+    <t>JBLFLIP6SQUAD</t>
+  </si>
+  <si>
+    <t>IJINNJOOGOWHT</t>
+  </si>
+  <si>
+    <t>SMA346MLGBARO</t>
+  </si>
+  <si>
+    <t>XIMZB0CQLEU</t>
+  </si>
+  <si>
+    <t>SMNP750XFGKB3</t>
+  </si>
+  <si>
+    <t>FRD0261585088</t>
+  </si>
+  <si>
+    <t>SMMXST50B</t>
+  </si>
+  <si>
+    <t>SLBTS55WLBL</t>
+  </si>
+  <si>
+    <t>BO8583662310</t>
+  </si>
+  <si>
+    <t>SLBTS55WLP</t>
+  </si>
+  <si>
+    <t>COV33BL</t>
+  </si>
+  <si>
+    <t>COC81O</t>
+  </si>
+  <si>
+    <t>PS51110</t>
+  </si>
+  <si>
+    <t>GMBECHD2743</t>
+  </si>
+  <si>
+    <t>SMA145MLGEARO</t>
+  </si>
+  <si>
+    <t>LUAB375</t>
+  </si>
+  <si>
+    <t>GA100247200</t>
+  </si>
+  <si>
+    <t>GA100263860</t>
+  </si>
+  <si>
+    <t>COP30RG</t>
+  </si>
+  <si>
+    <t>COP71RG</t>
+  </si>
+  <si>
+    <t>CAL32224ARB</t>
+  </si>
+  <si>
+    <t>CAL58079ARG</t>
+  </si>
+  <si>
+    <t>CAL50421</t>
+  </si>
+  <si>
+    <t>CAL72300ARG</t>
+  </si>
+  <si>
+    <t>CAL3901ARG</t>
+  </si>
+  <si>
+    <t>TP100762</t>
+  </si>
+  <si>
+    <t>TP20532</t>
+  </si>
+  <si>
+    <t>LUPCL20009</t>
+  </si>
+  <si>
+    <t>JBL1064002051</t>
+  </si>
+  <si>
+    <t>COI20BL</t>
+  </si>
+  <si>
+    <t>XIBHR5560GL</t>
+  </si>
+  <si>
+    <t>GA100220001</t>
+  </si>
+  <si>
+    <t>SMT220NZADARO</t>
+  </si>
+  <si>
+    <t>WDS298BL</t>
+  </si>
+  <si>
+    <t>DWPR431PI</t>
+  </si>
+  <si>
+    <t>CAL1057GRI</t>
+  </si>
+  <si>
+    <t>CAL3031</t>
+  </si>
+  <si>
+    <t>CAL80003</t>
+  </si>
+  <si>
+    <t>GMBECCP993</t>
+  </si>
+  <si>
+    <t>GMBECHD1627</t>
+  </si>
+  <si>
+    <t>PHIBRE70000</t>
+  </si>
+  <si>
+    <t>PHIHP832100</t>
+  </si>
+  <si>
+    <t>GMBECP182</t>
+  </si>
+  <si>
+    <t>GMBECHS2503</t>
+  </si>
+  <si>
+    <t>TE0008</t>
+  </si>
+  <si>
+    <t>XIMZB0CQMEU</t>
+  </si>
+  <si>
+    <t>SMA042MZCAARO</t>
+  </si>
+  <si>
+    <t>SMNP750XFGKB2</t>
+  </si>
+  <si>
+    <t>LUBP02N</t>
+  </si>
+  <si>
+    <t>TP15798</t>
+  </si>
+  <si>
+    <t>JBLFLIP6WHTAM</t>
+  </si>
+  <si>
+    <t>COP8GTB</t>
+  </si>
+  <si>
+    <t>GA100244513</t>
+  </si>
+  <si>
+    <t>COP8MAXB</t>
+  </si>
+  <si>
+    <t>GA100280930</t>
+  </si>
+  <si>
+    <t>GA100264501</t>
+  </si>
+  <si>
+    <t>XISJV4108GL</t>
+  </si>
+  <si>
+    <t>JBLTOURONEBL</t>
+  </si>
+  <si>
+    <t>PIOSEE3ML</t>
+  </si>
+  <si>
+    <t>CAL37126ARG</t>
+  </si>
+  <si>
+    <t>CAL37126ARA</t>
+  </si>
+  <si>
+    <t>CAL72300ARB</t>
+  </si>
+  <si>
+    <t>PHIBHD53000</t>
+  </si>
+  <si>
+    <t>XIMZB0E6IAR</t>
+  </si>
+  <si>
+    <t>XIMZB0E6JAR</t>
+  </si>
+  <si>
+    <t>XIMZB0CQKEU</t>
+  </si>
+  <si>
+    <t>SMF731BZAKARO</t>
+  </si>
+  <si>
+    <t>TP11443</t>
+  </si>
+  <si>
+    <t>LUL820</t>
+  </si>
+  <si>
+    <t>LUSTL608</t>
+  </si>
+  <si>
+    <t>BHF0090733002</t>
+  </si>
+  <si>
+    <t>SHT1121805020</t>
+  </si>
+  <si>
+    <t>JBLGO3RED</t>
+  </si>
+  <si>
+    <t>WDK66BL</t>
+  </si>
+  <si>
+    <t>WDK25G</t>
+  </si>
+  <si>
+    <t>TVHK09603609</t>
+  </si>
+  <si>
+    <t>MST0442344001</t>
+  </si>
+  <si>
+    <t>WDK25BL</t>
+  </si>
+  <si>
+    <t>COI11RG</t>
+  </si>
+  <si>
+    <t>GA100280932</t>
+  </si>
+  <si>
+    <t>PS53006236</t>
+  </si>
+  <si>
+    <t>FX5419</t>
+  </si>
+  <si>
+    <t>XSX885</t>
+  </si>
+  <si>
+    <t>DWPR431DI</t>
+  </si>
+  <si>
+    <t>DWPR431GI</t>
+  </si>
+  <si>
+    <t>DWPR431RI</t>
+  </si>
+  <si>
+    <t>SHT1120344005</t>
+  </si>
+  <si>
+    <t>SHT1120344004</t>
+  </si>
+  <si>
+    <t>PHIHC561015</t>
+  </si>
+  <si>
+    <t>SMA042MZKFARO</t>
+  </si>
+  <si>
+    <t>LUTR200L9</t>
+  </si>
+  <si>
+    <t>LUJATL828</t>
+  </si>
+  <si>
+    <t>FRD0261585089</t>
+  </si>
+  <si>
+    <t>WDK25AG</t>
+  </si>
+  <si>
+    <t>TVHK09603608</t>
+  </si>
+  <si>
+    <t>COP28PLUSG</t>
+  </si>
+  <si>
+    <t>COHD8UOG</t>
+  </si>
+  <si>
+    <t>SMT220NZSDARO</t>
+  </si>
+  <si>
+    <t>XIGDS4145GL</t>
+  </si>
+  <si>
+    <t>WDS293B</t>
+  </si>
+  <si>
+    <t>CAL14196</t>
+  </si>
+  <si>
+    <t>CAL14792</t>
+  </si>
+  <si>
+    <t>CAL36024ARA</t>
+  </si>
+  <si>
+    <t>CAL3901ARB</t>
+  </si>
+  <si>
+    <t>SMA245MLGOARO</t>
+  </si>
+  <si>
+    <t>TE0011</t>
+  </si>
+  <si>
+    <t>SMA146MLGEARO</t>
+  </si>
+  <si>
+    <t>XIMZB0E6LAR</t>
+  </si>
+  <si>
+    <t>SMP940XFGKA1A</t>
+  </si>
+  <si>
+    <t>LUBEO4N</t>
+  </si>
+  <si>
+    <t>LUAML8508</t>
+  </si>
+  <si>
+    <t>LUBTCL78</t>
+  </si>
+  <si>
+    <t>LUAB550</t>
+  </si>
+  <si>
+    <t>PHI8225</t>
+  </si>
+  <si>
+    <t>SHT1121805016</t>
+  </si>
+  <si>
+    <t>AU00003</t>
+  </si>
+  <si>
+    <t>XIBHR6923GL</t>
+  </si>
+  <si>
+    <t>SMR400NZWAARO</t>
+  </si>
+  <si>
+    <t>JBLT110BTBLK</t>
+  </si>
+  <si>
+    <t>CAL36024ARB</t>
+  </si>
+  <si>
+    <t>PHIBHD51400</t>
+  </si>
+  <si>
+    <t>PHIHC350515</t>
+  </si>
+  <si>
+    <t>SMA045MZKFARO</t>
+  </si>
+  <si>
+    <t>TE0003</t>
+  </si>
+  <si>
+    <t>TE0007</t>
+  </si>
+  <si>
+    <t>TE0018</t>
+  </si>
+  <si>
+    <t>TE0016</t>
+  </si>
+  <si>
+    <t>TE0020</t>
+  </si>
+  <si>
+    <t>SMA042MZKAARO</t>
+  </si>
+  <si>
+    <t>LURML8507</t>
+  </si>
+  <si>
+    <t>DWKIT81</t>
+  </si>
+  <si>
+    <t>TP18813</t>
+  </si>
+  <si>
+    <t>TP20531</t>
+  </si>
+  <si>
+    <t>TP11442</t>
+  </si>
+  <si>
+    <t>TP13018</t>
+  </si>
+  <si>
+    <t>WDK50G</t>
+  </si>
+  <si>
+    <t>JBLFLIP6BLACK</t>
+  </si>
+  <si>
+    <t>BO8583662110</t>
+  </si>
+  <si>
+    <t>JBLCHARGE5BLK</t>
+  </si>
+  <si>
+    <t>TVHK09603604</t>
+  </si>
+  <si>
+    <t>SMMXST40B</t>
+  </si>
+  <si>
+    <t>SMMXT70ZB</t>
+  </si>
+  <si>
+    <t>BO8583650100</t>
+  </si>
+  <si>
+    <t>BO8583652310</t>
+  </si>
+  <si>
+    <t>COP45G</t>
+  </si>
+  <si>
+    <t>COP26CW</t>
+  </si>
+  <si>
+    <t>COP68G</t>
+  </si>
+  <si>
+    <t>COP8MAXG</t>
+  </si>
+  <si>
+    <t>COP8MAXRG</t>
+  </si>
+  <si>
+    <t>GA100206311</t>
+  </si>
+  <si>
+    <t>GA100220002</t>
+  </si>
+  <si>
+    <t>COC80B</t>
+  </si>
+  <si>
+    <t>SMX210NZSAARO</t>
+  </si>
+  <si>
+    <t>WDGM3B</t>
+  </si>
+  <si>
+    <t>WDK505FBL</t>
+  </si>
+  <si>
+    <t>XIGDS4127GL</t>
+  </si>
+  <si>
+    <t>IJINNJOOGOBLK</t>
+  </si>
+  <si>
+    <t>MST0440344004</t>
+  </si>
+  <si>
+    <t>SHT1120344002</t>
+  </si>
+  <si>
+    <t>IJINNJOOGOPNK</t>
+  </si>
+  <si>
+    <t>CAL14920VES</t>
+  </si>
+  <si>
+    <t>CAL14480</t>
+  </si>
+  <si>
+    <t>CAL80030ARA</t>
+  </si>
+  <si>
+    <t>CAL80030ARG</t>
+  </si>
+  <si>
+    <t>CAL15881</t>
+  </si>
+  <si>
+    <t>CAL14667</t>
+  </si>
+  <si>
+    <t>CAL15750</t>
+  </si>
+  <si>
+    <t>GMBECHS2718</t>
+  </si>
+  <si>
+    <t>SMF946BLBLARO</t>
+  </si>
+  <si>
+    <t>TE0012</t>
+  </si>
+  <si>
+    <t>LILCHTEC2000</t>
+  </si>
+  <si>
+    <t>LUATL189B</t>
+  </si>
+  <si>
+    <t>TP20220</t>
+  </si>
+  <si>
+    <t>LU8416</t>
+  </si>
+  <si>
+    <t>WDK61BL</t>
+  </si>
+  <si>
+    <t>WDK66W</t>
+  </si>
+  <si>
+    <t>PV5601147</t>
+  </si>
+  <si>
+    <t>AU00002</t>
+  </si>
+  <si>
+    <t>JBLCHARGE5RED</t>
+  </si>
+  <si>
+    <t>WDK52G</t>
+  </si>
+  <si>
+    <t>JBLFLIP6GRAY</t>
+  </si>
+  <si>
+    <t>COP28PLUSGML</t>
+  </si>
+  <si>
+    <t>COP28PLUSGOML</t>
+  </si>
+  <si>
+    <t>GA100242910</t>
+  </si>
+  <si>
+    <t>GA100263870</t>
+  </si>
+  <si>
+    <t>GA100264133</t>
+  </si>
+  <si>
+    <t>COP26GMY</t>
+  </si>
+  <si>
+    <t>COP28PLUSP</t>
+  </si>
+  <si>
+    <t>COLAND2SGBL</t>
+  </si>
+  <si>
+    <t>XIWS1S</t>
+  </si>
+  <si>
+    <t>GA100220000</t>
+  </si>
+  <si>
+    <t>COP30B</t>
+  </si>
+  <si>
+    <t>GA100242911</t>
+  </si>
+  <si>
+    <t>XIBHR6926GL</t>
+  </si>
+  <si>
+    <t>COSKY8P</t>
+  </si>
+  <si>
+    <t>COV23BL</t>
+  </si>
+  <si>
+    <t>DWPR431SI</t>
+  </si>
+  <si>
+    <t>JBLQUA300BLK</t>
+  </si>
+  <si>
+    <t>PIOSEMJ503W</t>
+  </si>
+  <si>
+    <t>DWPR431BI</t>
+  </si>
+  <si>
+    <t>TVHK09603562</t>
+  </si>
+  <si>
+    <t>PHIBT320614</t>
+  </si>
+  <si>
+    <t>PHIS589817</t>
+  </si>
+  <si>
+    <t>TE0004</t>
+  </si>
+  <si>
+    <t>SMF731BZEJARO</t>
+  </si>
+  <si>
+    <t>TE0002</t>
+  </si>
+  <si>
+    <t>LILVPC20B</t>
+  </si>
+  <si>
+    <t>LUJK1008</t>
+  </si>
+  <si>
+    <t>LILVOTR18</t>
+  </si>
+  <si>
+    <t>IJVOOMLPRO</t>
+  </si>
+  <si>
+    <t>LUSCL4507</t>
+  </si>
+  <si>
+    <t>LULQCT1078K</t>
+  </si>
+  <si>
+    <t>LUCSL15008</t>
+  </si>
+  <si>
+    <t>LUARL7108</t>
+  </si>
+  <si>
+    <t>LUTPL7108</t>
+  </si>
+  <si>
+    <t>AKG708454</t>
+  </si>
+  <si>
+    <t>MARGB2049D</t>
+  </si>
+  <si>
+    <t>JBLGO3WHT</t>
+  </si>
+  <si>
+    <t>TVHK09603620</t>
+  </si>
+  <si>
+    <t>TVHK09603588</t>
+  </si>
+  <si>
+    <t>JBL701546</t>
+  </si>
+  <si>
+    <t>TVHK09603603</t>
+  </si>
+  <si>
+    <t>BO8000515</t>
+  </si>
+  <si>
+    <t>TVHK09603619</t>
+  </si>
+  <si>
+    <t>PV5600919</t>
+  </si>
+  <si>
+    <t>TVHK09603553</t>
+  </si>
+  <si>
+    <t>COP26CG</t>
+  </si>
+  <si>
+    <t>GA100270011</t>
+  </si>
+  <si>
+    <t>GA100273004</t>
+  </si>
+  <si>
+    <t>COP26G</t>
+  </si>
+  <si>
+    <t>COP60RG</t>
+  </si>
+  <si>
+    <t>GA100229305</t>
+  </si>
+  <si>
+    <t>XIBHR6013GL</t>
+  </si>
+  <si>
+    <t>GA100244512</t>
+  </si>
+  <si>
+    <t>SMX110NZAAL09</t>
+  </si>
+  <si>
+    <t>WDKM12BL</t>
+  </si>
+  <si>
+    <t>NIN7282</t>
+  </si>
+  <si>
+    <t>XIBHR5460GL</t>
+  </si>
+  <si>
+    <t>LULQFLUX081</t>
+  </si>
+  <si>
+    <t>SMR177NZWAARO</t>
+  </si>
+  <si>
+    <t>IJINNJOOGOBLU</t>
+  </si>
+  <si>
+    <t>DWPL431VI</t>
+  </si>
+  <si>
+    <t>JBLQUANTUM910</t>
+  </si>
+  <si>
+    <t>GMHDCBR483</t>
+  </si>
+  <si>
+    <t>PHIBHH88000</t>
+  </si>
+  <si>
+    <t>SMA146MZKEARO</t>
+  </si>
+  <si>
+    <t>TE0019</t>
+  </si>
+  <si>
+    <t>SMS911BZKMARO</t>
+  </si>
+  <si>
+    <t>SMA045MZWEARO</t>
+  </si>
+  <si>
+    <t>LUJK1009</t>
+  </si>
+  <si>
+    <t>LILVTHD12G</t>
+  </si>
+  <si>
+    <t>LUPQ500</t>
+  </si>
+  <si>
+    <t>TP23972</t>
+  </si>
+  <si>
+    <t>LUFRL14009</t>
+  </si>
+  <si>
+    <t>TP17090</t>
+  </si>
+  <si>
+    <t>TP19588</t>
+  </si>
+  <si>
+    <t>TP15143</t>
+  </si>
+  <si>
+    <t>DADACD1800V2</t>
+  </si>
+  <si>
+    <t>NVD0541085016</t>
+  </si>
+  <si>
+    <t>NWF0941333004</t>
+  </si>
+  <si>
+    <t>NWF0941333010</t>
+  </si>
+  <si>
+    <t>SHT1121805017</t>
+  </si>
+  <si>
+    <t>SHT1121805015</t>
+  </si>
+  <si>
+    <t>FRD0261585087</t>
+  </si>
+  <si>
+    <t>TVHK09603651</t>
+  </si>
+  <si>
+    <t>MST0440246017</t>
+  </si>
+  <si>
+    <t>TF8000906</t>
+  </si>
+  <si>
+    <t>TVHK09603547</t>
+  </si>
+  <si>
+    <t>JBL701530</t>
+  </si>
+  <si>
+    <t>TVHK09603611</t>
+  </si>
+  <si>
+    <t>TVHK09603559</t>
+  </si>
+  <si>
+    <t>BO8000413</t>
+  </si>
+  <si>
+    <t>WDK69BL</t>
+  </si>
+  <si>
+    <t>JBLGOESBLUA</t>
+  </si>
+  <si>
+    <t>GA100242613</t>
+  </si>
+  <si>
+    <t>GA100242912</t>
+  </si>
+  <si>
+    <t>COC80G</t>
+  </si>
+  <si>
+    <t>COP68P</t>
+  </si>
+  <si>
+    <t>GA100281013</t>
+  </si>
+  <si>
+    <t>SMR950NZKAARO</t>
+  </si>
+  <si>
+    <t>COP68RG</t>
+  </si>
+  <si>
+    <t>COP8MIXRG</t>
+  </si>
+  <si>
+    <t>COV23P</t>
+  </si>
+  <si>
+    <t>COM42V</t>
+  </si>
+  <si>
+    <t>SMR890NZKAARO</t>
+  </si>
+  <si>
+    <t>GA100264132</t>
+  </si>
+  <si>
+    <t>GA100253911</t>
+  </si>
+  <si>
+    <t>COC81B</t>
+  </si>
+  <si>
+    <t>COM40BL</t>
+  </si>
+  <si>
+    <t>GA100247201</t>
+  </si>
+  <si>
+    <t>XIBHR4245GL</t>
+  </si>
+  <si>
+    <t>SMSPLFF3CLAXX</t>
+  </si>
+  <si>
+    <t>SM32T4300AGCZ</t>
+  </si>
+  <si>
+    <t>PS809</t>
+  </si>
+  <si>
+    <t>WDU1BL</t>
+  </si>
+  <si>
+    <t>WDU6W</t>
+  </si>
+  <si>
+    <t>PS5G0005863</t>
+  </si>
+  <si>
+    <t>SMR177NZKAARO</t>
+  </si>
+  <si>
+    <t>JBLQUAONE</t>
+  </si>
+  <si>
+    <t>JBLQUANTUM610</t>
+  </si>
+  <si>
+    <t>GMBECCP927</t>
+  </si>
+  <si>
+    <t>GMHDCBR461</t>
+  </si>
+  <si>
+    <t>GMBECDP253</t>
+  </si>
+  <si>
+    <t>GMBECCP1021</t>
+  </si>
+  <si>
+    <t>GMGVEL</t>
+  </si>
+  <si>
+    <t>GMBECHS2622</t>
+  </si>
+  <si>
+    <t>PHIMG792015</t>
+  </si>
+  <si>
+    <t>TE0015</t>
+  </si>
+  <si>
+    <t>TE0021</t>
+  </si>
+  <si>
+    <t>XIMZB0BX2EU</t>
+  </si>
+  <si>
+    <t>SMF731BZEKARO</t>
+  </si>
+  <si>
+    <t>SMG990EZAAARO</t>
+  </si>
+  <si>
+    <t>LUJK1008B</t>
+  </si>
+  <si>
+    <t>PS435159</t>
+  </si>
+  <si>
+    <t>LULCO1032B</t>
+  </si>
+  <si>
+    <t>DACD1800V2B</t>
+  </si>
+  <si>
+    <t>DAJS800</t>
+  </si>
+  <si>
+    <t>LUTL19</t>
+  </si>
+  <si>
+    <t>LUMEGAIRON250</t>
+  </si>
+  <si>
+    <t>LULSA26</t>
+  </si>
+  <si>
+    <t>NWF0941333002</t>
+  </si>
+  <si>
+    <t>SET1070733001</t>
+  </si>
+  <si>
+    <t>NWF0941333031</t>
+  </si>
+  <si>
+    <t>NWF0941333030</t>
+  </si>
+  <si>
+    <t>NWF0941333033</t>
+  </si>
+  <si>
+    <t>NWF0941333011</t>
+  </si>
+  <si>
+    <t>JBLCHARGE5BLU</t>
+  </si>
+  <si>
+    <t>JBLFLIP6BLUE</t>
+  </si>
+  <si>
+    <t>WDK52B</t>
+  </si>
+  <si>
+    <t>JBL701543</t>
+  </si>
+  <si>
+    <t>MST0440246011</t>
+  </si>
+  <si>
+    <t>TVHK09603610</t>
+  </si>
+  <si>
+    <t>MST0440242092</t>
+  </si>
+  <si>
+    <t>AU00004</t>
+  </si>
+  <si>
+    <t>JBLFLIP6PINK</t>
+  </si>
+  <si>
+    <t>TVHK09603652</t>
+  </si>
+  <si>
+    <t>TVHK09603602</t>
+  </si>
+  <si>
+    <t>JBLFLIP6RED</t>
+  </si>
+  <si>
+    <t>PV5600906</t>
+  </si>
+  <si>
+    <t>XIQBH4227GL</t>
+  </si>
+  <si>
+    <t>TVHK09603621</t>
+  </si>
+  <si>
+    <t>BO7953452300</t>
+  </si>
+  <si>
+    <t>COLAND2CBL</t>
+  </si>
+  <si>
+    <t>COC60RG</t>
+  </si>
+  <si>
+    <t>COP45BL</t>
+  </si>
+  <si>
+    <t>COP8MIXGML</t>
+  </si>
+  <si>
+    <t>COP28BL</t>
+  </si>
+  <si>
+    <t>COSKY5PLUSSBR</t>
+  </si>
+  <si>
+    <t>COP8MIXG</t>
+  </si>
+  <si>
+    <t>GA100264502</t>
+  </si>
+  <si>
+    <t>COI31RG</t>
+  </si>
+  <si>
+    <t>GA100281015</t>
+  </si>
+  <si>
+    <t>GA100262701</t>
+  </si>
+  <si>
+    <t>COP20PP</t>
+  </si>
+  <si>
+    <t>SMR950NZSAARO</t>
+  </si>
+  <si>
+    <t>COI30RP</t>
+  </si>
+  <si>
+    <t>COSKY5PLUSBB</t>
+  </si>
+  <si>
+    <t>COM40B</t>
+  </si>
+  <si>
+    <t>COP45B</t>
+  </si>
+  <si>
+    <t>COSKY8GO</t>
+  </si>
+  <si>
+    <t>COP26BL</t>
+  </si>
+  <si>
+    <t>COV23PBL</t>
+  </si>
+  <si>
+    <t>GA100249610</t>
+  </si>
+  <si>
+    <t>GA100270111</t>
+  </si>
+  <si>
+    <t>GA100273003</t>
+  </si>
+  <si>
+    <t>COL10RGML</t>
+  </si>
+  <si>
+    <t>SMR960NZKAARO</t>
+  </si>
+  <si>
+    <t>HU55020ANU</t>
+  </si>
+  <si>
+    <t>GA100264113</t>
+  </si>
+  <si>
+    <t>COP8GTRG</t>
+  </si>
+  <si>
+    <t>GA100281012</t>
+  </si>
+  <si>
+    <t>COM42G</t>
+  </si>
+  <si>
+    <t>COI30BB</t>
+  </si>
+  <si>
+    <t>COSKY5PLUSB</t>
+  </si>
+  <si>
+    <t>GA100281011</t>
+  </si>
+  <si>
+    <t>COP71P</t>
+  </si>
+  <si>
+    <t>COP71BL</t>
+  </si>
+  <si>
+    <t>SMX510NZADARO</t>
+  </si>
+  <si>
+    <t>WDKM3BL</t>
+  </si>
+  <si>
+    <t>WDMK10BL</t>
+  </si>
+  <si>
+    <t>WDX25BG</t>
+  </si>
+  <si>
+    <t>WDV2BL</t>
+  </si>
+  <si>
+    <t>NIN7459</t>
+  </si>
+  <si>
+    <t>PS5480</t>
+  </si>
+  <si>
+    <t>WDWX5R</t>
+  </si>
+  <si>
+    <t>PS41310</t>
+  </si>
+  <si>
+    <t>XSX892</t>
+  </si>
+  <si>
+    <t>XSX893</t>
+  </si>
+  <si>
+    <t>WDWX2R</t>
+  </si>
+  <si>
+    <t>XIBHR4421GL</t>
+  </si>
+  <si>
+    <t>LULQ6013250</t>
+  </si>
+  <si>
+    <t>WDWX22BW</t>
+  </si>
+  <si>
+    <t>SMIA500BBEGWW</t>
+  </si>
+  <si>
+    <t>TVHK09603561</t>
+  </si>
+  <si>
+    <t>XSX887</t>
+  </si>
+  <si>
+    <t>XIBHR6606GL</t>
+  </si>
+  <si>
+    <t>PIOSEMJ503R</t>
+  </si>
+  <si>
+    <t>JBL1060305008</t>
+  </si>
+  <si>
+    <t>PS5907</t>
+  </si>
+  <si>
+    <t>MS0440242051</t>
+  </si>
+  <si>
+    <t>GMBECHD2227</t>
+  </si>
+  <si>
+    <t>SMS918BZKMARO</t>
+  </si>
+  <si>
+    <t>SMS711BZALARO</t>
+  </si>
+  <si>
+    <t>SMA042MZCFARO</t>
+  </si>
+  <si>
+    <t>XIMZB0BWWEU</t>
+  </si>
+  <si>
+    <t>SMA236MZWEARO</t>
+  </si>
+  <si>
+    <t>TE0001</t>
+  </si>
+  <si>
+    <t>SMF721BZAKARO</t>
+  </si>
+  <si>
+    <t>LUAML10108</t>
+  </si>
+  <si>
+    <t>LUAML22008</t>
+  </si>
+  <si>
+    <t>LUCPM150</t>
+  </si>
+  <si>
+    <t>LUTL139A</t>
+  </si>
+  <si>
+    <t>TP16050</t>
+  </si>
+  <si>
+    <t>LULQI1650</t>
+  </si>
+  <si>
+    <t>LUTL19N</t>
+  </si>
+  <si>
+    <t>LUGP2500</t>
+  </si>
+  <si>
+    <t>NWF0941333006</t>
+  </si>
+  <si>
+    <t>FRD0261585067</t>
+  </si>
+  <si>
+    <t>NWF0941333028</t>
+  </si>
+  <si>
+    <t>NWF0941333026</t>
+  </si>
+  <si>
+    <t>NWF0941333036</t>
+  </si>
+  <si>
+    <t>NWF0941333009</t>
+  </si>
+  <si>
+    <t>SKP4370609</t>
+  </si>
+  <si>
+    <t>TF8000905</t>
+  </si>
+  <si>
+    <t>PV5601500</t>
+  </si>
+  <si>
+    <t>BO7953452100</t>
+  </si>
+  <si>
+    <t>TVHK09603605</t>
+  </si>
+  <si>
+    <t>PV5601433</t>
+  </si>
+  <si>
+    <t>JBLCHARGE5CA</t>
+  </si>
+  <si>
+    <t>COI20RGML</t>
+  </si>
+  <si>
+    <t>COP8PLUSBL</t>
+  </si>
+  <si>
+    <t>COSKY5PLUSS</t>
+  </si>
+  <si>
+    <t>COC80RG</t>
+  </si>
+  <si>
+    <t>COI11G</t>
+  </si>
+  <si>
+    <t>COLAND2CG</t>
+  </si>
+  <si>
+    <t>COSKY5GB</t>
+  </si>
+  <si>
+    <t>COI30SBL</t>
+  </si>
+  <si>
+    <t>COP8MIXMRG</t>
+  </si>
+  <si>
+    <t>COSKY5PSM</t>
+  </si>
+  <si>
+    <t>COP50BL</t>
+  </si>
+  <si>
+    <t>COP8PLUSGTGO</t>
+  </si>
+  <si>
+    <t>GA100253913</t>
+  </si>
+  <si>
+    <t>GA100242711</t>
+  </si>
+  <si>
+    <t>GA100256202</t>
+  </si>
+  <si>
+    <t>COI11B</t>
+  </si>
+  <si>
+    <t>GA100257212</t>
+  </si>
+  <si>
+    <t>COC61BM</t>
+  </si>
+  <si>
+    <t>COI31RGML</t>
+  </si>
+  <si>
+    <t>COV23RG</t>
+  </si>
+  <si>
+    <t>COLAND2SCSBR</t>
+  </si>
+  <si>
+    <t>COV33RGML</t>
+  </si>
+  <si>
+    <t>GA100281014</t>
+  </si>
+  <si>
+    <t>GA100257210</t>
+  </si>
+  <si>
+    <t>COQX7BL</t>
+  </si>
+  <si>
+    <t>GA100243010</t>
+  </si>
+  <si>
+    <t>GA100184713</t>
+  </si>
+  <si>
+    <t>GA100257211</t>
+  </si>
+  <si>
+    <t>SMR940NZKAARO</t>
+  </si>
+  <si>
+    <t>COV23SML</t>
+  </si>
+  <si>
+    <t>COP20PG</t>
+  </si>
+  <si>
+    <t>APPMM9F3LEA</t>
+  </si>
+  <si>
+    <t>APPMHNH3LEA</t>
+  </si>
+  <si>
+    <t>APPMHNJ3LEA</t>
+  </si>
+  <si>
+    <t>APPMK7P3LEA</t>
+  </si>
+  <si>
+    <t>WDKM5BL</t>
+  </si>
+  <si>
+    <t>WD1080</t>
+  </si>
+  <si>
+    <t>ST8207</t>
+  </si>
+  <si>
+    <t>WDGM2BLG</t>
+  </si>
+  <si>
+    <t>SM75QN85CAGCZ</t>
+  </si>
+  <si>
+    <t>SMQN85QN800BG</t>
+  </si>
+  <si>
+    <t>TBTBPMRACCH</t>
+  </si>
+  <si>
+    <t>XSX891</t>
+  </si>
+  <si>
+    <t>NIN7015</t>
+  </si>
+  <si>
+    <t>PS5G3006432</t>
+  </si>
+  <si>
+    <t>WDWX2G</t>
+  </si>
+  <si>
+    <t>PS4G0005916</t>
+  </si>
+  <si>
+    <t>APPMX4F2ZMA</t>
+  </si>
+  <si>
+    <t>PS734</t>
+  </si>
+  <si>
+    <t>WDT15LBL</t>
+  </si>
+  <si>
+    <t>APPMX3L2EA</t>
+  </si>
+  <si>
+    <t>JBLQUANTUMTWS</t>
+  </si>
+  <si>
     <t>SMR400NZAAARO</t>
   </si>
   <si>
-    <t>GA100256600</t>
-  </si>
-  <si>
-    <t>DWPR431BI</t>
-  </si>
-  <si>
-    <t>DWPL431VI</t>
-  </si>
-  <si>
-    <t>DWPR431DI</t>
-  </si>
-  <si>
-    <t>GA100256202</t>
+    <t>SMR510NZWAARO</t>
+  </si>
+  <si>
+    <t>SHT1120344003</t>
+  </si>
+  <si>
+    <t>APPMME73BEA</t>
+  </si>
+  <si>
+    <t>PIOSEMJ503L</t>
+  </si>
+  <si>
+    <t>CA9011181NA</t>
+  </si>
+  <si>
+    <t>MST0440344002</t>
+  </si>
+  <si>
+    <t>AU00006</t>
+  </si>
+  <si>
+    <t>JBLT520BTBLKA</t>
+  </si>
+  <si>
+    <t>JBLQUA50</t>
+  </si>
+  <si>
+    <t>JBLT110WHT</t>
+  </si>
+  <si>
+    <t>PIOSECL722TWH</t>
+  </si>
+  <si>
+    <t>TF9205021</t>
+  </si>
+  <si>
+    <t>JBLT215TWSWHT</t>
+  </si>
+  <si>
+    <t>JBLQU100BLKAM</t>
+  </si>
+  <si>
+    <t>JBLAWAREBlue</t>
+  </si>
+  <si>
+    <t>JBL1060344008</t>
+  </si>
+  <si>
+    <t>ps5556</t>
+  </si>
+  <si>
+    <t>TRA66950027</t>
+  </si>
+  <si>
+    <t>GMBECCP1026</t>
+  </si>
+  <si>
+    <t>GMBECHD1605</t>
+  </si>
+  <si>
+    <t>GMBECHD2231</t>
+  </si>
+  <si>
+    <t>GMGAURAT</t>
+  </si>
+  <si>
+    <t>GMGEOCER</t>
+  </si>
+  <si>
+    <t>GMGM56229</t>
+  </si>
+  <si>
+    <t>GMWBCS060</t>
+  </si>
+  <si>
+    <t>GMWBCSC050</t>
+  </si>
+  <si>
+    <t>GMBECCG226</t>
+  </si>
+  <si>
+    <t>GMBECSH124</t>
+  </si>
+  <si>
+    <t>GMGBFITC</t>
+  </si>
+  <si>
+    <t>GMBECSH311</t>
+  </si>
+  <si>
+    <t>SMA042MLBAARO</t>
+  </si>
+  <si>
+    <t>SMF946BLBMARO</t>
+  </si>
+  <si>
+    <t>TE0005</t>
+  </si>
+  <si>
+    <t>TE0013</t>
+  </si>
+  <si>
+    <t>SMS711BZPLARO</t>
+  </si>
+  <si>
+    <t>SMF731BLGJARO</t>
+  </si>
+  <si>
+    <t>SMA035MZKAARO</t>
+  </si>
+  <si>
+    <t>SMF946BZKLARO</t>
+  </si>
+  <si>
+    <t>SMS916BZKLARO</t>
+  </si>
+  <si>
+    <t>SMF721BLVJARO</t>
+  </si>
+  <si>
+    <t>SMA045MZKEARO</t>
+  </si>
+  <si>
+    <t>SMA235MZKEARO</t>
+  </si>
+  <si>
+    <t>SMS711BLGLARO</t>
+  </si>
+  <si>
+    <t>PEPECV20R</t>
+  </si>
+  <si>
+    <t>LILCFH420</t>
+  </si>
+  <si>
+    <t>LILTCV110D</t>
+  </si>
+  <si>
+    <t>PEPEVC20N</t>
+  </si>
+  <si>
+    <t>LILVP16P</t>
+  </si>
+  <si>
+    <t>LILCI070</t>
+  </si>
+  <si>
+    <t>HYTNOTEAWB2BK</t>
+  </si>
+  <si>
+    <t>SMNP750XFGKB1</t>
+  </si>
+  <si>
+    <t>PS51096</t>
+  </si>
+  <si>
+    <t>LUJMPL1008</t>
+  </si>
+  <si>
+    <t>LUF20L8</t>
+  </si>
+  <si>
+    <t>LUGRCL80010</t>
+  </si>
+  <si>
+    <t>LUEVOMIG175</t>
+  </si>
+  <si>
+    <t>LULA1500MM</t>
+  </si>
+  <si>
+    <t>LUTL7509</t>
+  </si>
+  <si>
+    <t>LULQCM2459</t>
+  </si>
+  <si>
+    <t>LUMEGAIRON180</t>
+  </si>
+  <si>
+    <t>LUSAL108</t>
+  </si>
+  <si>
+    <t>TP20533</t>
+  </si>
+  <si>
+    <t>LUBL10008</t>
+  </si>
+  <si>
+    <t>LUAI150L8K</t>
+  </si>
+  <si>
+    <t>DAT450</t>
+  </si>
+  <si>
+    <t>LUFPL7</t>
+  </si>
+  <si>
+    <t>TP16051</t>
+  </si>
+  <si>
+    <t>PHI8235</t>
+  </si>
+  <si>
+    <t>FRD0261585064</t>
+  </si>
+  <si>
+    <t>AKG708451</t>
+  </si>
+  <si>
+    <t>NWF0941333037</t>
+  </si>
+  <si>
+    <t>NVD0541085024</t>
+  </si>
+  <si>
+    <t>AKG708456</t>
+  </si>
+  <si>
+    <t>SET1070733002</t>
+  </si>
+  <si>
+    <t>FRD0261585066</t>
+  </si>
+  <si>
+    <t>NWF0931333012</t>
+  </si>
+  <si>
+    <t>NWF0941333034</t>
+  </si>
+  <si>
+    <t>SMLF22T350FHL</t>
+  </si>
+  <si>
+    <t>SMLC24RG50FZL</t>
+  </si>
+  <si>
+    <t>WDK39BL</t>
+  </si>
+  <si>
+    <t>JBLGO3PNK</t>
+  </si>
+  <si>
+    <t>JBLGO3SQUADAM</t>
+  </si>
+  <si>
+    <t>SMHWC400ZB</t>
+  </si>
+  <si>
+    <t>TF6000752W</t>
+  </si>
+  <si>
+    <t>WDCS1GN</t>
+  </si>
+  <si>
+    <t>TF8000640</t>
+  </si>
+  <si>
+    <t>MST0440242072</t>
+  </si>
+  <si>
+    <t>XIBHR4802GL</t>
+  </si>
+  <si>
+    <t>TVHK09603639</t>
+  </si>
+  <si>
+    <t>TVHK09603641</t>
+  </si>
+  <si>
+    <t>TVHK09603649</t>
+  </si>
+  <si>
+    <t>JBLFLIP6VERD</t>
+  </si>
+  <si>
+    <t>SMHWC450ZB</t>
+  </si>
+  <si>
+    <t>JBL701538</t>
+  </si>
+  <si>
+    <t>JBLCHARGEE2BL</t>
+  </si>
+  <si>
+    <t>TVHK09603640</t>
+  </si>
+  <si>
+    <t>TVHK09603618</t>
+  </si>
+  <si>
+    <t>BO8659830100</t>
+  </si>
+  <si>
+    <t>TVHK09603616</t>
+  </si>
+  <si>
+    <t>COHD8UW</t>
+  </si>
+  <si>
+    <t>GA100256201</t>
+  </si>
+  <si>
+    <t>GA100264111</t>
+  </si>
+  <si>
+    <t>COI31B</t>
+  </si>
+  <si>
+    <t>GA100270010</t>
+  </si>
+  <si>
+    <t>GA100243001</t>
+  </si>
+  <si>
+    <t>SMR930NZKAARO</t>
+  </si>
+  <si>
+    <t>SMR940NZSAARO</t>
+  </si>
+  <si>
+    <t>HU55020ANV</t>
+  </si>
+  <si>
+    <t>COI10SML</t>
+  </si>
+  <si>
+    <t>COIW7B</t>
+  </si>
+  <si>
+    <t>COLAND1MBL</t>
+  </si>
+  <si>
+    <t>COI10BLM</t>
+  </si>
+  <si>
+    <t>COSKY5SBLK</t>
+  </si>
+  <si>
+    <t>COSKY5PBLM</t>
+  </si>
+  <si>
+    <t>COI20BWLTH</t>
+  </si>
+  <si>
+    <t>COP50B</t>
+  </si>
+  <si>
+    <t>COP8B</t>
+  </si>
+  <si>
+    <t>COV23PP</t>
+  </si>
+  <si>
+    <t>COP10GR</t>
+  </si>
+  <si>
+    <t>COI20SML</t>
+  </si>
+  <si>
+    <t>COP8MIXMS</t>
+  </si>
+  <si>
+    <t>COP8PLUSRG</t>
+  </si>
+  <si>
+    <t>COV23RGML</t>
+  </si>
+  <si>
+    <t>COP18B</t>
+  </si>
+  <si>
+    <t>COIW7W</t>
+  </si>
+  <si>
+    <t>COP8MIXW</t>
+  </si>
+  <si>
+    <t>COP8PROBL</t>
+  </si>
+  <si>
+    <t>GA100254117</t>
+  </si>
+  <si>
+    <t>GA100224102</t>
+  </si>
+  <si>
+    <t>GA100256602</t>
+  </si>
+  <si>
+    <t>GA100256603</t>
+  </si>
+  <si>
+    <t>GA100239400</t>
+  </si>
+  <si>
+    <t>GA100256303</t>
+  </si>
+  <si>
+    <t>COSKY5PLUSSB</t>
+  </si>
+  <si>
+    <t>GA100200607</t>
+  </si>
+  <si>
+    <t>GA100223900</t>
+  </si>
+  <si>
+    <t>GA100254101</t>
+  </si>
+  <si>
+    <t>GA100217202</t>
+  </si>
+  <si>
+    <t>GA100264131</t>
+  </si>
+  <si>
+    <t>COIW8G</t>
+  </si>
+  <si>
+    <t>GA100264813</t>
+  </si>
+  <si>
+    <t>GA100273002</t>
+  </si>
+  <si>
+    <t>GA100281010</t>
+  </si>
+  <si>
+    <t>COM42BL</t>
+  </si>
+  <si>
+    <t>HU55029045</t>
+  </si>
+  <si>
+    <t>COSKY5BL</t>
+  </si>
+  <si>
+    <t>COV23PS</t>
+  </si>
+  <si>
+    <t>HU55029046</t>
+  </si>
+  <si>
+    <t>COP28G</t>
+  </si>
+  <si>
+    <t>GA100270012</t>
+  </si>
+  <si>
+    <t>GA100270112</t>
+  </si>
+  <si>
+    <t>SMR930NZEAARO</t>
+  </si>
+  <si>
+    <t>COP9BL</t>
+  </si>
+  <si>
+    <t>COLAND2SSBL</t>
+  </si>
+  <si>
+    <t>COSKY5SM</t>
+  </si>
+  <si>
+    <t>COC81RG</t>
+  </si>
+  <si>
+    <t>COSKY5SB</t>
+  </si>
+  <si>
+    <t>COP8PLUSB</t>
+  </si>
+  <si>
+    <t>COP8PLUSGTBL</t>
+  </si>
+  <si>
+    <t>GA100229300</t>
+  </si>
+  <si>
+    <t>GA100229302</t>
+  </si>
+  <si>
+    <t>COP8MIXBLK</t>
+  </si>
+  <si>
+    <t>COI10RGML</t>
+  </si>
+  <si>
+    <t>COQX7GO</t>
+  </si>
+  <si>
+    <t>COC61P</t>
+  </si>
+  <si>
+    <t>COI20BLTH</t>
+  </si>
+  <si>
+    <t>COP8PLUSP</t>
+  </si>
+  <si>
+    <t>GA100224701</t>
+  </si>
+  <si>
+    <t>COV33GML</t>
+  </si>
+  <si>
+    <t>GA100256401</t>
+  </si>
+  <si>
+    <t>COC60SML</t>
+  </si>
+  <si>
+    <t>COI30SM</t>
+  </si>
+  <si>
+    <t>COP18G</t>
+  </si>
+  <si>
+    <t>COI31BL</t>
+  </si>
+  <si>
+    <t>COSKY8BL</t>
+  </si>
+  <si>
+    <t>COIW8R</t>
+  </si>
+  <si>
+    <t>SMR390NIDAARO</t>
+  </si>
+  <si>
+    <t>COP28RG</t>
+  </si>
+  <si>
+    <t>COP8PLUSGTG</t>
+  </si>
+  <si>
+    <t>GA100244510</t>
+  </si>
+  <si>
+    <t>SMX900NZAIARO</t>
+  </si>
+  <si>
+    <t>IJTAB701</t>
+  </si>
+  <si>
+    <t>APPMK7V3LEA</t>
+  </si>
+  <si>
+    <t>SMX800NZSVARO</t>
+  </si>
+  <si>
+    <t>SMX510NZAHARO</t>
+  </si>
+  <si>
+    <t>SMX810NZEHARO</t>
+  </si>
+  <si>
+    <t>SMX710NZAHARO</t>
+  </si>
+  <si>
+    <t>SMX710NZADARO</t>
+  </si>
+  <si>
+    <t>SMX810NZAHARO</t>
+  </si>
+  <si>
+    <t>APPMK7M3LEA</t>
+  </si>
+  <si>
+    <t>WDMK4BR</t>
+  </si>
+  <si>
+    <t>WDX6BL</t>
+  </si>
+  <si>
+    <t>WDKM6BL</t>
+  </si>
+  <si>
+    <t>SMUN70CU7000G</t>
+  </si>
+  <si>
+    <t>SMUN50CU7000G</t>
+  </si>
+  <si>
+    <t>N3DS116</t>
+  </si>
+  <si>
+    <t>PS4470</t>
+  </si>
+  <si>
+    <t>PS776</t>
+  </si>
+  <si>
+    <t>PS5476</t>
+  </si>
+  <si>
+    <t>MIGIFT500</t>
+  </si>
+  <si>
+    <t>TF9205019B</t>
   </si>
   <si>
     <t>DWPL431ZI</t>
   </si>
   <si>
-    <t>GA100242613</t>
-  </si>
-  <si>
-    <t>JBL1064002054</t>
-  </si>
-  <si>
-    <t>GA100270010</t>
-  </si>
-  <si>
-    <t>IJINNJOOGOBLK</t>
-  </si>
-  <si>
-    <t>SMA146MZSEARO</t>
-  </si>
-  <si>
-    <t>GA100264501</t>
-  </si>
-  <si>
-    <t>SMA546EZKEARO</t>
-  </si>
-  <si>
-    <t>HU55020ANV</t>
-  </si>
-  <si>
-    <t>DWPR431SI</t>
-  </si>
-  <si>
-    <t>MS0440242052</t>
-  </si>
-  <si>
-    <t>GA100256201</t>
-  </si>
-  <si>
-    <t>GA100270011</t>
-  </si>
-  <si>
-    <t>GA100270012</t>
-  </si>
-  <si>
-    <t>DWPR431PI</t>
-  </si>
-  <si>
-    <t>SMX110NZAAL09</t>
-  </si>
-  <si>
     <t>AU00005</t>
   </si>
   <si>
-    <t>DWPR431RI</t>
-  </si>
-  <si>
-    <t>SMA546EZKFARO</t>
-  </si>
-  <si>
-    <t>SMA047MZGFARO</t>
-  </si>
-  <si>
-    <t>GA100264110</t>
-  </si>
-  <si>
-    <t>HU55029045</t>
-  </si>
-  <si>
-    <t>SMA045MZGEARO</t>
-  </si>
-  <si>
-    <t>TE0007</t>
-  </si>
-  <si>
-    <t>HU55020ANU</t>
-  </si>
-  <si>
-    <t>XIBHR6923GL</t>
-  </si>
-  <si>
-    <t>DWPR431YI</t>
-  </si>
-  <si>
-    <t>SMA346MLGBARO</t>
-  </si>
-  <si>
-    <t>IJINNJOOGOPNK</t>
-  </si>
-  <si>
-    <t>JBLT520BTBLKA</t>
-  </si>
-  <si>
-    <t>TE0018</t>
-  </si>
-  <si>
-    <t>JBL1064002023</t>
-  </si>
-  <si>
-    <t>GA100206401</t>
-  </si>
-  <si>
-    <t>GA100270111</t>
-  </si>
-  <si>
-    <t>AU00006</t>
-  </si>
-  <si>
-    <t>DWPR431GI</t>
-  </si>
-  <si>
-    <t>SMR400NZWAARO</t>
-  </si>
-  <si>
-    <t>TE0019</t>
-  </si>
-  <si>
-    <t>XIQBH4195GL</t>
-  </si>
-  <si>
-    <t>GA100264111</t>
-  </si>
-  <si>
-    <t>GA100264130</t>
-  </si>
-  <si>
-    <t>GA100264133</t>
-  </si>
-  <si>
-    <t>SMR930NZKAARO</t>
-  </si>
-  <si>
-    <t>IJINNJOOGOBLU</t>
-  </si>
-  <si>
-    <t>SLEBG207B</t>
-  </si>
-  <si>
-    <t>SLEBP201W</t>
-  </si>
-  <si>
-    <t>XIMZB0BX0EU</t>
-  </si>
-  <si>
-    <t>SMA145MLGEARO</t>
-  </si>
-  <si>
-    <t>XIQBH4197GL</t>
+    <t>PHIMG371115</t>
+  </si>
+  <si>
+    <t>PHIQP272410</t>
+  </si>
+  <si>
+    <t>TE0014</t>
+  </si>
+  <si>
+    <t>LULQ510B</t>
+  </si>
+  <si>
+    <t>LUMEGAIRON140</t>
+  </si>
+  <si>
+    <t>LUTBL167</t>
+  </si>
+  <si>
+    <t>TP22984</t>
+  </si>
+  <si>
+    <t>PHI8222</t>
+  </si>
+  <si>
+    <t>NVD0541085053</t>
+  </si>
+  <si>
+    <t>NWF0941333012</t>
+  </si>
+  <si>
+    <t>MALS8801</t>
+  </si>
+  <si>
+    <t>JBL701542</t>
+  </si>
+  <si>
+    <t>BO8000251</t>
+  </si>
+  <si>
+    <t>JBL1064002032</t>
+  </si>
+  <si>
+    <t>GA100224100</t>
+  </si>
+  <si>
+    <t>COHD8UBG</t>
+  </si>
+  <si>
+    <t>SMR960NZSAARO</t>
+  </si>
+  <si>
+    <t>GA100243011</t>
+  </si>
+  <si>
+    <t>SMR890NZSAARO</t>
+  </si>
+  <si>
+    <t>COI30RG</t>
+  </si>
+  <si>
+    <t>COP8MIXRGML</t>
+  </si>
+  <si>
+    <t>GA100256200</t>
+  </si>
+  <si>
+    <t>COV23S</t>
+  </si>
+  <si>
+    <t>GA100264112</t>
+  </si>
+  <si>
+    <t>COM41B</t>
+  </si>
+  <si>
+    <t>SMX700NZALARO</t>
+  </si>
+  <si>
+    <t>SMX710NZEDARO</t>
+  </si>
+  <si>
+    <t>SMX200NZAMARO</t>
+  </si>
+  <si>
+    <t>SMQN85Q70AAGC</t>
+  </si>
+  <si>
+    <t>SMQN65Q65BAGC</t>
+  </si>
+  <si>
+    <t>TF9205019</t>
+  </si>
+  <si>
+    <t>TVHK09603622</t>
+  </si>
+  <si>
+    <t>TRA20298779</t>
+  </si>
+  <si>
+    <t>SM235MLBEARO</t>
+  </si>
+  <si>
+    <t>TE0010</t>
+  </si>
+  <si>
+    <t>LILCWD910</t>
+  </si>
+  <si>
+    <t>LILVTF16P</t>
+  </si>
+  <si>
+    <t>IJVOOMLPROBLK</t>
+  </si>
+  <si>
+    <t>IJVOOMLMAXBLK</t>
+  </si>
+  <si>
+    <t>LUTAL4509</t>
+  </si>
+  <si>
+    <t>LUATL7108</t>
+  </si>
+  <si>
+    <t>LULQC2</t>
+  </si>
+  <si>
+    <t>LUHTEP1004</t>
+  </si>
+  <si>
+    <t>PHI8232</t>
+  </si>
+  <si>
+    <t>GA100215600</t>
+  </si>
+  <si>
+    <t>SMR390NZAAARO</t>
+  </si>
+  <si>
+    <t>COIW7R</t>
   </si>
   <si>
     <t>GA100206400</t>
   </si>
   <si>
-    <t>GA100243001</t>
-  </si>
-  <si>
-    <t>SMR930NZEAARO</t>
-  </si>
-  <si>
-    <t>SMR940NZSAARO</t>
-  </si>
-  <si>
-    <t>SMSPLFF3CLAXX</t>
-  </si>
-  <si>
-    <t>DWPR431LI</t>
-  </si>
-  <si>
-    <t>SMA042MZKFARO</t>
-  </si>
-  <si>
-    <t>XIMZB0CQLEU</t>
-  </si>
-  <si>
-    <t>SMG990EZWAARO</t>
-  </si>
-  <si>
-    <t>SMA042MZCAARO</t>
-  </si>
-  <si>
-    <t>BO8000409</t>
-  </si>
-  <si>
-    <t>GA100242711</t>
-  </si>
-  <si>
-    <t>GA100264132</t>
-  </si>
-  <si>
-    <t>GA100270110</t>
-  </si>
-  <si>
-    <t>XIBHR6926GL</t>
-  </si>
-  <si>
-    <t>SHT1120305004</t>
-  </si>
-  <si>
-    <t>SLEBG207G</t>
-  </si>
-  <si>
-    <t>TVHK09603561</t>
-  </si>
-  <si>
-    <t>XIMZB0CQKEU</t>
-  </si>
-  <si>
-    <t>SMA245MLGOARO</t>
-  </si>
-  <si>
-    <t>XIMZB0CQMEU</t>
-  </si>
-  <si>
-    <t>TE0001</t>
-  </si>
-  <si>
-    <t>SMA146MLGEARO</t>
-  </si>
-  <si>
-    <t>XIMZB0E6JAR</t>
-  </si>
-  <si>
-    <t>JBLFLIP6TEALA</t>
-  </si>
-  <si>
-    <t>JBL701535</t>
-  </si>
-  <si>
-    <t>SLSPT80WLB</t>
-  </si>
-  <si>
-    <t>JBLFLIP6SQUAD</t>
-  </si>
-  <si>
-    <t>SNROAMW</t>
-  </si>
-  <si>
-    <t>GA100224701</t>
-  </si>
-  <si>
-    <t>GA100242911</t>
-  </si>
-  <si>
-    <t>GA100247200</t>
-  </si>
-  <si>
-    <t>GA100264113</t>
-  </si>
-  <si>
-    <t>GA100264131</t>
-  </si>
-  <si>
-    <t>GA100270112</t>
-  </si>
-  <si>
-    <t>GA100281010</t>
-  </si>
-  <si>
-    <t>GA100281011</t>
-  </si>
-  <si>
-    <t>HU55029046</t>
-  </si>
-  <si>
-    <t>SMR940NZKAARO</t>
-  </si>
-  <si>
-    <t>SMUN50CU7000G</t>
-  </si>
-  <si>
-    <t>JBLWBUDSBLKAM</t>
-  </si>
-  <si>
-    <t>SLEBP201B</t>
-  </si>
-  <si>
-    <t>TF9205019</t>
-  </si>
-  <si>
-    <t>TF9205019B</t>
-  </si>
-  <si>
-    <t>SMA045MZKFARO</t>
-  </si>
-  <si>
-    <t>XIMZB0E6IAR</t>
-  </si>
-  <si>
-    <t>TE0002</t>
-  </si>
-  <si>
-    <t>TE0003</t>
-  </si>
-  <si>
-    <t>TE0005</t>
-  </si>
-  <si>
-    <t>TE0008</t>
-  </si>
-  <si>
-    <t>TE0011</t>
-  </si>
-  <si>
-    <t>TE0015</t>
-  </si>
-  <si>
-    <t>SMA042MZKAARO</t>
-  </si>
-  <si>
-    <t>XIMZB0E6LAR</t>
-  </si>
-  <si>
-    <t>FRD0261585064</t>
-  </si>
-  <si>
-    <t>NVD0541085053</t>
-  </si>
-  <si>
-    <t>NWF0941333026</t>
-  </si>
-  <si>
-    <t>SHT1121805020</t>
-  </si>
-  <si>
-    <t>SNROAMB</t>
-  </si>
-  <si>
-    <t>JBL1064002051</t>
-  </si>
-  <si>
-    <t>SLBTS55WLB</t>
-  </si>
-  <si>
-    <t>SLBTS55WLBL</t>
-  </si>
-  <si>
-    <t>SLBTS55WLP</t>
-  </si>
-  <si>
-    <t>BO8583662310</t>
-  </si>
-  <si>
-    <t>SMMXST50B</t>
-  </si>
-  <si>
-    <t>AU00003</t>
-  </si>
-  <si>
-    <t>TVHK09603609</t>
-  </si>
-  <si>
-    <t>TVHK09603608</t>
-  </si>
-  <si>
-    <t>GA100206301</t>
-  </si>
-  <si>
-    <t>GA100220000</t>
-  </si>
-  <si>
-    <t>GA100242712</t>
-  </si>
-  <si>
-    <t>GA100242910</t>
-  </si>
-  <si>
-    <t>GA100243010</t>
-  </si>
-  <si>
-    <t>GA100249610</t>
-  </si>
-  <si>
-    <t>GA100262700</t>
-  </si>
-  <si>
-    <t>GA100281013</t>
-  </si>
-  <si>
-    <t>SMR960NZKAARO</t>
-  </si>
-  <si>
-    <t>XIBHR6013GL</t>
-  </si>
-  <si>
-    <t>AKG708447</t>
-  </si>
-  <si>
-    <t>JBL1060344036</t>
-  </si>
-  <si>
-    <t>JBLQUA50</t>
-  </si>
-  <si>
-    <t>JBLT110BLK</t>
-  </si>
-  <si>
-    <t>JBLT215TWSWHT</t>
-  </si>
-  <si>
-    <t>JBLV300TWSBLK</t>
-  </si>
-  <si>
-    <t>MS0440242051</t>
-  </si>
-  <si>
-    <t>SHT1120344005</t>
-  </si>
-  <si>
-    <t>SMIA500BBEGWW</t>
-  </si>
-  <si>
-    <t>SMR177NZKAARO</t>
-  </si>
-  <si>
-    <t>SMR177NZWAARO</t>
-  </si>
-  <si>
-    <t>TF9205023</t>
-  </si>
-  <si>
-    <t>SMF731BZAKARO</t>
-  </si>
-  <si>
-    <t>SMA146MZKEARO</t>
-  </si>
-  <si>
-    <t>SMS711BZALARO</t>
-  </si>
-  <si>
-    <t>SMF721BLVJARO</t>
-  </si>
-  <si>
-    <t>SMF731BZEJARO</t>
-  </si>
-  <si>
-    <t>SMF946BLBLARO</t>
-  </si>
-  <si>
-    <t>SMS911BZKMARO</t>
-  </si>
-  <si>
-    <t>TE0004</t>
-  </si>
-  <si>
-    <t>TE0006</t>
-  </si>
-  <si>
-    <t>TE0017</t>
-  </si>
-  <si>
-    <t>SMF721BZAKARO</t>
-  </si>
-  <si>
-    <t>SMA236MZWEARO</t>
-  </si>
-  <si>
-    <t>FRD0261585066</t>
-  </si>
-  <si>
-    <t>MARGBLS2049D</t>
-  </si>
-  <si>
-    <t>NWF0941333028</t>
-  </si>
-  <si>
-    <t>NWF0941333033</t>
-  </si>
-  <si>
-    <t>SHT1121805016</t>
-  </si>
-  <si>
-    <t>SHT1121805021</t>
-  </si>
-  <si>
-    <t>JBLFLIP6WHTAM</t>
-  </si>
-  <si>
-    <t>JBLFLIP6BLACK</t>
-  </si>
-  <si>
-    <t>JBLCHARGE5RED</t>
-  </si>
-  <si>
-    <t>AU00002</t>
-  </si>
-  <si>
-    <t>JBLCHARGE5BLU</t>
-  </si>
-  <si>
-    <t>BO8583662110</t>
-  </si>
-  <si>
-    <t>JBLCHARGE5BLK</t>
-  </si>
-  <si>
-    <t>BO8583650100</t>
-  </si>
-  <si>
-    <t>JBL701546</t>
-  </si>
-  <si>
-    <t>TVHK09603604</t>
-  </si>
-  <si>
-    <t>MST0442344001</t>
-  </si>
-  <si>
-    <t>MST0440246017</t>
-  </si>
-  <si>
-    <t>TVHK09603588</t>
-  </si>
-  <si>
-    <t>TVHK09603619</t>
-  </si>
-  <si>
-    <t>TVHK09603620</t>
-  </si>
-  <si>
-    <t>BO8583652310</t>
-  </si>
-  <si>
-    <t>XIQBH4227GL</t>
-  </si>
-  <si>
-    <t>PV5601147</t>
-  </si>
-  <si>
-    <t>GA100215605</t>
-  </si>
-  <si>
-    <t>GA100223801</t>
-  </si>
-  <si>
-    <t>GA100247201</t>
-  </si>
-  <si>
-    <t>GA100247202</t>
-  </si>
-  <si>
-    <t>GA100262701</t>
-  </si>
-  <si>
-    <t>GA100264112</t>
-  </si>
-  <si>
-    <t>GA100280930</t>
-  </si>
-  <si>
-    <t>GA100280931</t>
-  </si>
-  <si>
-    <t>GA100281014</t>
-  </si>
-  <si>
-    <t>GA100281015</t>
-  </si>
-  <si>
-    <t>SMR890NZSAARO</t>
-  </si>
-  <si>
-    <t>SMR920NZKAARO</t>
-  </si>
-  <si>
-    <t>SMR950NZKAARO</t>
-  </si>
-  <si>
-    <t>APPMM9F3LEA</t>
-  </si>
-  <si>
-    <t>IJTAB701</t>
-  </si>
-  <si>
-    <t>SMX210NZSAARO</t>
+    <t>COI11BL</t>
+  </si>
+  <si>
+    <t>GA100224700</t>
+  </si>
+  <si>
+    <t>COI31BML</t>
+  </si>
+  <si>
+    <t>COC60RGML</t>
+  </si>
+  <si>
+    <t>SMQN55Q65BAGC</t>
+  </si>
+  <si>
+    <t>SMUN50AU7000G</t>
+  </si>
+  <si>
+    <t>TRA20298776</t>
+  </si>
+  <si>
+    <t>TRA61641180</t>
+  </si>
+  <si>
+    <t>PEPEVQD20R</t>
+  </si>
+  <si>
+    <t>LUAFL657</t>
+  </si>
+  <si>
+    <t>JBL701539</t>
+  </si>
+  <si>
+    <t>COP68B</t>
+  </si>
+  <si>
+    <t>SMUN75BU8000G</t>
   </si>
   <si>
     <t>SM70AU7000GCZ</t>
   </si>
   <si>
-    <t>SMQN98Q80CAGC</t>
+    <t>SM43AU7000GCZ</t>
+  </si>
+  <si>
+    <t>JBLGOESREDAM</t>
+  </si>
+  <si>
+    <t>COP28PLUSGO</t>
   </si>
   <si>
     <t>SMUN65BU8000G</t>
   </si>
   <si>
-    <t>SMUN70CU7000G</t>
-  </si>
-  <si>
-    <t>SMUN75BU8000G</t>
-  </si>
-  <si>
-    <t>TF9205021</t>
-  </si>
-  <si>
-    <t>SHT1120344003</t>
-  </si>
-  <si>
-    <t>APPMME73BEA</t>
-  </si>
-  <si>
-    <t>PIOSECL722TWH</t>
-  </si>
-  <si>
-    <t>PIOSEMJ503L</t>
-  </si>
-  <si>
-    <t>PIOSEE3ML</t>
-  </si>
-  <si>
-    <t>PIOSEMJ503R</t>
-  </si>
-  <si>
-    <t>SHT1120344002</t>
-  </si>
-  <si>
-    <t>SHT1120344004</t>
-  </si>
-  <si>
-    <t>BO8057460020</t>
-  </si>
-  <si>
-    <t>CA9011181NA</t>
-  </si>
-  <si>
-    <t>JBLQUA300BLK</t>
-  </si>
-  <si>
-    <t>PIOSEMJ503W</t>
-  </si>
-  <si>
-    <t>JBLQUAONE</t>
-  </si>
-  <si>
-    <t>XIBHR4197CN</t>
-  </si>
-  <si>
-    <t>AKG708445</t>
-  </si>
-  <si>
-    <t>JBL1060305008</t>
-  </si>
-  <si>
-    <t>JBLT110WHT</t>
-  </si>
-  <si>
-    <t>JBLQU100BLKAM</t>
-  </si>
-  <si>
-    <t>PS5907</t>
-  </si>
-  <si>
-    <t>JBLAWAREBlue</t>
-  </si>
-  <si>
-    <t>JBLT110BTBLK</t>
-  </si>
-  <si>
-    <t>JBL1060344008</t>
-  </si>
-  <si>
-    <t>SMR510NZAAARO</t>
-  </si>
-  <si>
-    <t>TVHK09603562</t>
-  </si>
-  <si>
-    <t>TVHK09603615</t>
-  </si>
-  <si>
-    <t>TVHK09603642</t>
-  </si>
-  <si>
-    <t>MST0440344003</t>
-  </si>
-  <si>
-    <t>MST0440344004</t>
-  </si>
-  <si>
-    <t>JBLQUANTUM610</t>
-  </si>
-  <si>
-    <t>JBLQUANTUM910</t>
-  </si>
-  <si>
-    <t>JBLQUANTUMTWS</t>
-  </si>
-  <si>
-    <t>JBLTOURONEBL</t>
-  </si>
-  <si>
-    <t>SMR510NZWAARO</t>
-  </si>
-  <si>
-    <t>TE0016</t>
-  </si>
-  <si>
-    <t>SMS711BLGLARO</t>
-  </si>
-  <si>
-    <t>SMF731BZEKARO</t>
-  </si>
-  <si>
-    <t>SMS918BZKMARO</t>
-  </si>
-  <si>
-    <t>SMA045MZWEARO</t>
-  </si>
-  <si>
-    <t>XIMZB0BX2EU</t>
-  </si>
-  <si>
-    <t>SMG990EZAAARO</t>
-  </si>
-  <si>
-    <t>SMA042MZCFARO</t>
-  </si>
-  <si>
-    <t>XIMZB0BWWEU</t>
-  </si>
-  <si>
-    <t>SMA042MLBAARO</t>
-  </si>
-  <si>
-    <t>SMS916BZKLARO</t>
-  </si>
-  <si>
-    <t>SMS711BZPLARO</t>
-  </si>
-  <si>
-    <t>SMA235MZKEARO</t>
-  </si>
-  <si>
-    <t>SMA035MZKAARO</t>
-  </si>
-  <si>
-    <t>SMF946BLBMARO</t>
-  </si>
-  <si>
-    <t>TE0009</t>
-  </si>
-  <si>
-    <t>TE0010</t>
-  </si>
-  <si>
-    <t>TE0013</t>
-  </si>
-  <si>
-    <t>TE0014</t>
-  </si>
-  <si>
-    <t>SMF731BLGJARO</t>
-  </si>
-  <si>
-    <t>SMF946BZKLARO</t>
-  </si>
-  <si>
-    <t>HYTNOTEAWB2BK</t>
-  </si>
-  <si>
-    <t>SMNP750XFGKB1</t>
-  </si>
-  <si>
-    <t>SMNP750XFGKB2</t>
-  </si>
-  <si>
-    <t>SMNP750XFGKB3</t>
-  </si>
-  <si>
-    <t>SMP940XFGKA1A</t>
-  </si>
-  <si>
-    <t>FRD0261585088</t>
-  </si>
-  <si>
-    <t>NVD0541085042</t>
-  </si>
-  <si>
-    <t>AKG708451</t>
-  </si>
-  <si>
-    <t>AKG708454</t>
-  </si>
-  <si>
-    <t>NWF0941333004</t>
-  </si>
-  <si>
-    <t>NWF0941333006</t>
-  </si>
-  <si>
-    <t>NWF0941333010</t>
-  </si>
-  <si>
-    <t>NWF0941333002</t>
-  </si>
-  <si>
-    <t>NWF0941333011</t>
-  </si>
-  <si>
-    <t>SHT1121805017</t>
-  </si>
-  <si>
-    <t>SHT1121805015</t>
-  </si>
-  <si>
-    <t>BHF0090733002</t>
-  </si>
-  <si>
-    <t>NWF0941333009</t>
-  </si>
-  <si>
-    <t>NWF0941333012</t>
-  </si>
-  <si>
-    <t>FRD0261585067</t>
-  </si>
-  <si>
-    <t>SET1070733002</t>
-  </si>
-  <si>
-    <t>SKP4370609</t>
-  </si>
-  <si>
-    <t>NWF0941333037</t>
-  </si>
-  <si>
-    <t>NWF0941333030</t>
-  </si>
-  <si>
-    <t>NWF0941333031</t>
-  </si>
-  <si>
-    <t>FRD0261585063</t>
-  </si>
-  <si>
-    <t>FRD0261585087</t>
-  </si>
-  <si>
-    <t>FRD0261585089</t>
-  </si>
-  <si>
-    <t>NVD0541085016</t>
-  </si>
-  <si>
-    <t>NVD0541085024</t>
-  </si>
-  <si>
-    <t>AKG708311</t>
-  </si>
-  <si>
-    <t>NWF0931333012</t>
-  </si>
-  <si>
-    <t>NWF0941333034</t>
-  </si>
-  <si>
-    <t>NWF0941333036</t>
-  </si>
-  <si>
-    <t>SMMXST40B</t>
-  </si>
-  <si>
-    <t>SMHWC400ZB</t>
-  </si>
-  <si>
-    <t>TVHK09603603</t>
-  </si>
-  <si>
-    <t>TVHK09603651</t>
-  </si>
-  <si>
-    <t>MST0440242092</t>
-  </si>
-  <si>
-    <t>PV5600919</t>
-  </si>
-  <si>
-    <t>JBLCHARGE5CA</t>
-  </si>
-  <si>
-    <t>BO8000413</t>
-  </si>
-  <si>
-    <t>BO8000515</t>
-  </si>
-  <si>
-    <t>JBLFLIP6GRAY</t>
-  </si>
-  <si>
-    <t>TVHK09603559</t>
-  </si>
-  <si>
-    <t>TVHK09603611</t>
-  </si>
-  <si>
-    <t>AU00004</t>
-  </si>
-  <si>
-    <t>TF8000906</t>
-  </si>
-  <si>
-    <t>JBLFLIP6PINK</t>
-  </si>
-  <si>
-    <t>JBLFLIP6RED</t>
-  </si>
-  <si>
-    <t>TVHK09603621</t>
-  </si>
-  <si>
-    <t>JBLFLIP6BLUE</t>
-  </si>
-  <si>
-    <t>TVHK09603547</t>
-  </si>
-  <si>
-    <t>TVHK09603553</t>
-  </si>
-  <si>
-    <t>TVHK09603652</t>
-  </si>
-  <si>
-    <t>PV5601433</t>
-  </si>
-  <si>
-    <t>TVHK09603610</t>
-  </si>
-  <si>
-    <t>TVHK09603639</t>
-  </si>
-  <si>
-    <t>BO7953452300</t>
-  </si>
-  <si>
-    <t>JBLGO3PNK</t>
-  </si>
-  <si>
-    <t>PV5600906</t>
-  </si>
-  <si>
-    <t>TVHK09603602</t>
-  </si>
-  <si>
-    <t>JBL701530</t>
-  </si>
-  <si>
-    <t>JBL701543</t>
-  </si>
-  <si>
-    <t>JBLGO3WHT</t>
-  </si>
-  <si>
-    <t>TVHK09603605</t>
-  </si>
-  <si>
-    <t>JBL1064002032</t>
-  </si>
-  <si>
-    <t>JBLGO3BLK</t>
-  </si>
-  <si>
-    <t>JBLGO3RED</t>
-  </si>
-  <si>
-    <t>JBLGO3SQUADAM</t>
-  </si>
-  <si>
-    <t>MST0440246011</t>
-  </si>
-  <si>
-    <t>TVHK09603653</t>
-  </si>
-  <si>
-    <t>TF6000755</t>
-  </si>
-  <si>
-    <t>TF6000752</t>
-  </si>
-  <si>
-    <t>TF8000905</t>
-  </si>
-  <si>
-    <t>JBL701542</t>
-  </si>
-  <si>
-    <t>PV5601500</t>
-  </si>
-  <si>
-    <t>JBL701539</t>
-  </si>
-  <si>
-    <t>BO7953452100</t>
-  </si>
-  <si>
-    <t>TVHK09603616</t>
-  </si>
-  <si>
-    <t>JBLGOESBLUA</t>
-  </si>
-  <si>
-    <t>JBLFLIP6VERD</t>
-  </si>
-  <si>
-    <t>JBL701538</t>
-  </si>
-  <si>
-    <t>BO8659830100</t>
-  </si>
-  <si>
-    <t>BO8000251</t>
-  </si>
-  <si>
-    <t>PV5600903</t>
-  </si>
-  <si>
-    <t>MST0440242072</t>
-  </si>
-  <si>
-    <t>JBLCHARGEE2BL</t>
-  </si>
-  <si>
-    <t>XIBHR4802GL</t>
-  </si>
-  <si>
-    <t>SMHWC450ZB</t>
-  </si>
-  <si>
-    <t>TF6000752W</t>
-  </si>
-  <si>
-    <t>GA100223900</t>
-  </si>
-  <si>
-    <t>GA100264502</t>
-  </si>
-  <si>
-    <t>GA100229300</t>
-  </si>
-  <si>
-    <t>GA100256401</t>
-  </si>
-  <si>
-    <t>SMR890NZKAARO</t>
-  </si>
-  <si>
-    <t>APPMKQ63LEA</t>
-  </si>
-  <si>
-    <t>GA100253911</t>
-  </si>
-  <si>
-    <t>GA100253913</t>
-  </si>
-  <si>
-    <t>GA100254117</t>
-  </si>
-  <si>
-    <t>GA100257210</t>
-  </si>
-  <si>
-    <t>GA100184713</t>
-  </si>
-  <si>
-    <t>GA100224100</t>
-  </si>
-  <si>
-    <t>GA100224102</t>
-  </si>
-  <si>
-    <t>GA100206311</t>
-  </si>
-  <si>
-    <t>GA100242612</t>
-  </si>
-  <si>
-    <t>GA100256603</t>
-  </si>
-  <si>
-    <t>GA100239400</t>
-  </si>
-  <si>
-    <t>GA100242611</t>
-  </si>
-  <si>
-    <t>GA100244512</t>
-  </si>
-  <si>
-    <t>GA100256303</t>
-  </si>
-  <si>
-    <t>GA100257211</t>
-  </si>
-  <si>
-    <t>GA100263861</t>
-  </si>
-  <si>
-    <t>GA100263871</t>
-  </si>
-  <si>
-    <t>GA100263870</t>
-  </si>
-  <si>
-    <t>SMR900NZAAARO</t>
-  </si>
-  <si>
-    <t>SMR220NZKAARO</t>
-  </si>
-  <si>
-    <t>XIWS1S</t>
-  </si>
-  <si>
-    <t>GA100215601</t>
-  </si>
-  <si>
-    <t>GA100229305</t>
-  </si>
-  <si>
-    <t>GA100242912</t>
-  </si>
-  <si>
-    <t>GA100254037</t>
-  </si>
-  <si>
-    <t>GA100215606</t>
-  </si>
-  <si>
-    <t>GA100200607</t>
-  </si>
-  <si>
-    <t>GA100220001</t>
-  </si>
-  <si>
-    <t>GA100244513</t>
-  </si>
-  <si>
-    <t>GA100254011</t>
-  </si>
-  <si>
-    <t>GA100254101</t>
-  </si>
-  <si>
-    <t>GA100256300</t>
-  </si>
-  <si>
-    <t>GA100229302</t>
-  </si>
-  <si>
-    <t>GA100244510</t>
-  </si>
-  <si>
-    <t>GA100244511</t>
-  </si>
-  <si>
-    <t>GA100217202</t>
-  </si>
-  <si>
-    <t>GA100263860</t>
-  </si>
-  <si>
-    <t>GA100257212</t>
-  </si>
-  <si>
-    <t>GA100264813</t>
-  </si>
-  <si>
-    <t>GA100273002</t>
-  </si>
-  <si>
-    <t>GA100273003</t>
-  </si>
-  <si>
-    <t>GA100273004</t>
-  </si>
-  <si>
-    <t>GA100280932</t>
-  </si>
-  <si>
-    <t>GA100281012</t>
-  </si>
-  <si>
-    <t>XIBHR5560GL</t>
-  </si>
-  <si>
-    <t>GA100220002</t>
-  </si>
-  <si>
-    <t>SMR950NZSAARO</t>
-  </si>
-  <si>
-    <t>SMR960NZSAARO</t>
-  </si>
-  <si>
-    <t>SMX900NZAIARO</t>
-  </si>
-  <si>
-    <t>SMT385MZKAARO</t>
-  </si>
-  <si>
-    <t>SMT220NZADARO</t>
-  </si>
-  <si>
-    <t>SMT220NZSDARO</t>
-  </si>
-  <si>
-    <t>APPMHNH3LEA</t>
-  </si>
-  <si>
-    <t>APPMHNJ3LEA</t>
-  </si>
-  <si>
-    <t>APPMK7M3LEA</t>
-  </si>
-  <si>
-    <t>APPMK7P3LEA</t>
-  </si>
-  <si>
-    <t>APPMK7V3LEA</t>
-  </si>
-  <si>
-    <t>XIBHR4245GL</t>
-  </si>
-  <si>
-    <t>IJSUPERBWHT</t>
-  </si>
-  <si>
-    <t>SMX700NZALARO</t>
-  </si>
-  <si>
-    <t>SMX800NZSVARO</t>
-  </si>
-  <si>
-    <t>SMX710NZADARO</t>
-  </si>
-  <si>
-    <t>SMX710NZEDARO</t>
-  </si>
-  <si>
-    <t>SMX810NZAHARO</t>
-  </si>
-  <si>
-    <t>SMX810NZEHARO</t>
-  </si>
-  <si>
-    <t>SMX510NZADARO</t>
-  </si>
-  <si>
-    <t>SMX510NZAHARO</t>
-  </si>
-  <si>
-    <t>SMX710NZAHARO</t>
-  </si>
-  <si>
-    <t>SMQN85QN800BG</t>
-  </si>
-  <si>
-    <t>SMQN65QN85BAG</t>
-  </si>
-  <si>
-    <t>SMQN85Q70AAGC</t>
-  </si>
-  <si>
-    <t>SMQN65Q65BAGC</t>
-  </si>
-  <si>
-    <t>SMUN50AU7000G</t>
-  </si>
-  <si>
-    <t>SM32T4300AGCZ</t>
-  </si>
-  <si>
-    <t>SMQN55Q65BAGC</t>
-  </si>
-  <si>
-    <t>SMQN55Q65CAGC</t>
-  </si>
-  <si>
-    <t>SM75QN85CAGCZ</t>
-  </si>
-  <si>
-    <t>SMLSP7TGAXZB</t>
-  </si>
-  <si>
-    <t>SMS711BZWMARO</t>
-  </si>
-  <si>
-    <t>GA100256602</t>
+    <t>SM50TU7000GCZ</t>
+  </si>
+  <si>
+    <t>DW189</t>
+  </si>
+  <si>
+    <t>SM50AU7000GCZ</t>
+  </si>
+  <si>
+    <t>DAID550K</t>
+  </si>
+  <si>
+    <t>LUHL120</t>
+  </si>
+  <si>
+    <t>LUATL188B</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +2658,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1361,28 +2666,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1401,7 +2690,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1417,7 +2706,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1429,7 +2718,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1476,6 +2765,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1511,6 +2817,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1662,16 +2985,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A435"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC98E532-E892-4A19-A39D-476D99B0E7EB}">
+  <dimension ref="A1:A870"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A435"/>
+      <selection sqref="A1:A870"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -1680,2173 +3003,4348 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="A69" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="A70" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="A71" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="A72" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="A73" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="A74" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="A75" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="A76" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="A77" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="A78" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="A79" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="A80" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="A81" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="A82" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="A83" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="A84" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="A85" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="A86" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="A87" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="A88" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+      <c r="A89" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="A90" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="A91" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+      <c r="A92" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+      <c r="A93" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+      <c r="A94" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+      <c r="A95" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+      <c r="A96" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+      <c r="A97" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+      <c r="A98" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+      <c r="A99" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+      <c r="A100" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="A101" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="A102" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+      <c r="A103" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+      <c r="A104" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+      <c r="A105" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+      <c r="A106" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+      <c r="A107" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+      <c r="A108" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+      <c r="A109" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+      <c r="A110" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+      <c r="A111" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+      <c r="A112" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="A113" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+      <c r="A114" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+      <c r="A115" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+      <c r="A116" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+      <c r="A117" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+      <c r="A118" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+      <c r="A119" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+      <c r="A120" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+      <c r="A121" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+      <c r="A122" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+      <c r="A123" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+      <c r="A124" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+      <c r="A125" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+      <c r="A126" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+      <c r="A127" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+      <c r="A128" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+      <c r="A129" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+      <c r="A130" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+      <c r="A131" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
+      <c r="A132" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+      <c r="A133" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+      <c r="A134" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+      <c r="A135" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+      <c r="A136" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+      <c r="A137" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+      <c r="A138" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
+      <c r="A139" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
+      <c r="A140" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
+      <c r="A141" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
+      <c r="A142" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
+      <c r="A143" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+      <c r="A144" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
+      <c r="A145" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
+      <c r="A146" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
+      <c r="A147" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+      <c r="A148" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
+      <c r="A149" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
+      <c r="A150" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
+      <c r="A151" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
+      <c r="A152" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
+      <c r="A153" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
+      <c r="A154" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
+      <c r="A155" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
+      <c r="A156" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
+      <c r="A157" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
+      <c r="A158" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
+      <c r="A159" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
+      <c r="A160" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
+      <c r="A161" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
+      <c r="A162" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
+      <c r="A163" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
+      <c r="A164" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
+      <c r="A165" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
+      <c r="A166" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
+      <c r="A167" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
+      <c r="A168" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
+      <c r="A169" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
+      <c r="A170" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
+      <c r="A171" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
+      <c r="A172" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
+      <c r="A173" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
+      <c r="A174" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
+      <c r="A175" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
+      <c r="A176" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
+      <c r="A177" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
+      <c r="A178" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
+      <c r="A179" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
+      <c r="A180" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
+      <c r="A181" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
+      <c r="A182" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
+      <c r="A183" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
+      <c r="A184" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
+      <c r="A185" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
+      <c r="A186" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
+      <c r="A187" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
+      <c r="A188" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
+      <c r="A189" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
+      <c r="A190" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
+      <c r="A191" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
+      <c r="A192" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
+      <c r="A193" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
+      <c r="A194" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
+      <c r="A195" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
+      <c r="A196" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
+      <c r="A197" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
+      <c r="A198" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
+      <c r="A199" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
+      <c r="A200" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
+      <c r="A201" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
+      <c r="A202" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
+      <c r="A203" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
+      <c r="A204" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
+      <c r="A205" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
+      <c r="A206" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
+      <c r="A207" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
+      <c r="A208" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
+      <c r="A209" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
+      <c r="A210" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
+      <c r="A211" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="s">
+      <c r="A212" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
+      <c r="A213" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="s">
+      <c r="A214" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
+      <c r="A215" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
+      <c r="A216" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
+      <c r="A217" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
+      <c r="A218" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
+      <c r="A219" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
+      <c r="A220" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
+      <c r="A221" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
+      <c r="A222" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
+      <c r="A223" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="1" t="s">
+      <c r="A224" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="1" t="s">
+      <c r="A225" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
+      <c r="A226" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
+      <c r="A227" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="1" t="s">
+      <c r="A228" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
+      <c r="A229" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
+      <c r="A230" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
+      <c r="A231" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
+      <c r="A232" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
+      <c r="A233" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
+      <c r="A234" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="1" t="s">
+      <c r="A235" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="s">
+      <c r="A236" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="1" t="s">
+      <c r="A237" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="s">
+      <c r="A238" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="s">
+      <c r="A239" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
+      <c r="A240" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="s">
+      <c r="A241" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="1" t="s">
+      <c r="A242" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="1" t="s">
+      <c r="A243" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
+      <c r="A244" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="s">
+      <c r="A245" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="s">
+      <c r="A246" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="1" t="s">
+      <c r="A247" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
+      <c r="A248" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
+      <c r="A249" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="1" t="s">
+      <c r="A250" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="1" t="s">
+      <c r="A251" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="1" t="s">
+      <c r="A252" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="1" t="s">
+      <c r="A253" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="s">
+      <c r="A254" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
+      <c r="A255" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="s">
+      <c r="A256" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
+      <c r="A257" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
+      <c r="A258" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
+      <c r="A259" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
+      <c r="A260" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
+      <c r="A261" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
+      <c r="A262" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
+      <c r="A263" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
+      <c r="A264" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="s">
+      <c r="A265" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="1" t="s">
+      <c r="A266" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="1" t="s">
+      <c r="A267" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="1" t="s">
+      <c r="A268" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="1" t="s">
+      <c r="A269" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="1" t="s">
+      <c r="A270" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
+      <c r="A271" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="s">
+      <c r="A272" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="s">
+      <c r="A273" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="s">
+      <c r="A274" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="1" t="s">
+      <c r="A275" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="1" t="s">
+      <c r="A276" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="1" t="s">
+      <c r="A277" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="1" t="s">
+      <c r="A278" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="1" t="s">
+      <c r="A279" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="1" t="s">
+      <c r="A280" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="1" t="s">
+      <c r="A281" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="1" t="s">
+      <c r="A282" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="1" t="s">
+      <c r="A283" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="1" t="s">
+      <c r="A284" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="1" t="s">
+      <c r="A285" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="1" t="s">
+      <c r="A286" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="1" t="s">
+      <c r="A287" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="1" t="s">
+      <c r="A288" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="s">
+      <c r="A289" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="1" t="s">
+      <c r="A290" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="1" t="s">
+      <c r="A291" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="s">
+      <c r="A292" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="1" t="s">
+      <c r="A293" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="1" t="s">
+      <c r="A294" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="1" t="s">
+      <c r="A295" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="1" t="s">
+      <c r="A296" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="1" t="s">
+      <c r="A297" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="1" t="s">
+      <c r="A298" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="1" t="s">
+      <c r="A299" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="1" t="s">
+      <c r="A300" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="1" t="s">
+      <c r="A301" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="1" t="s">
+      <c r="A302" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="1" t="s">
+      <c r="A303" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="1" t="s">
+      <c r="A304" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="1" t="s">
+      <c r="A305" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="1" t="s">
+      <c r="A306" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="1" t="s">
+      <c r="A307" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="1" t="s">
+      <c r="A308" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="1" t="s">
+      <c r="A309" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="1" t="s">
+      <c r="A310" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="1" t="s">
+      <c r="A311" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="1" t="s">
+      <c r="A312" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="1" t="s">
+      <c r="A313" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="1" t="s">
+      <c r="A314" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="1" t="s">
+      <c r="A315" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="1" t="s">
+      <c r="A316" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="1" t="s">
+      <c r="A317" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="1" t="s">
+      <c r="A318" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="1" t="s">
+      <c r="A319" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="1" t="s">
+      <c r="A320" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="1" t="s">
+      <c r="A321" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="1" t="s">
+      <c r="A322" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="1" t="s">
+      <c r="A323" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="1" t="s">
+      <c r="A324" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="1" t="s">
+      <c r="A325" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="1" t="s">
+      <c r="A326" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="1" t="s">
+      <c r="A327" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="1" t="s">
+      <c r="A328" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="1" t="s">
+      <c r="A329" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="1" t="s">
+      <c r="A330" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="1" t="s">
+      <c r="A331" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="1" t="s">
+      <c r="A332" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="1" t="s">
+      <c r="A333" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="1" t="s">
+      <c r="A334" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="1" t="s">
+      <c r="A335" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="1" t="s">
+      <c r="A336" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="1" t="s">
+      <c r="A337" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="1" t="s">
+      <c r="A338" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="1" t="s">
+      <c r="A339" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="1" t="s">
+      <c r="A340" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="1" t="s">
+      <c r="A341" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="1" t="s">
+      <c r="A342" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="1" t="s">
+      <c r="A343" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="1" t="s">
+      <c r="A344" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="1" t="s">
+      <c r="A345" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="1" t="s">
+      <c r="A346" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="1" t="s">
+      <c r="A347" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="1" t="s">
+      <c r="A348" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="1" t="s">
+      <c r="A349" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="1" t="s">
+      <c r="A350" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="1" t="s">
+      <c r="A351" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="1" t="s">
+      <c r="A352" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="1" t="s">
+      <c r="A353" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="1" t="s">
+      <c r="A354" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" s="1" t="s">
+      <c r="A355" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" s="1" t="s">
+      <c r="A356" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="1" t="s">
+      <c r="A357" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" s="1" t="s">
+      <c r="A358" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="1" t="s">
+      <c r="A359" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" s="1" t="s">
+      <c r="A360" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="1" t="s">
+      <c r="A361" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" s="1" t="s">
+      <c r="A362" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" s="1" t="s">
+      <c r="A363" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="1" t="s">
+      <c r="A364" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="1" t="s">
+      <c r="A365" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="1" t="s">
+      <c r="A366" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" s="1" t="s">
+      <c r="A367" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" s="1" t="s">
+      <c r="A368" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="1" t="s">
+      <c r="A369" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="1" t="s">
+      <c r="A370" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="1" t="s">
+      <c r="A371" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="1" t="s">
+      <c r="A372" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="1" t="s">
+      <c r="A373" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" s="1" t="s">
+      <c r="A374" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="1" t="s">
+      <c r="A375" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="1" t="s">
+      <c r="A376" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="1" t="s">
+      <c r="A377" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" s="1" t="s">
+      <c r="A378" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="1" t="s">
+      <c r="A379" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" s="1" t="s">
+      <c r="A380" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" s="1" t="s">
+      <c r="A381" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" s="1" t="s">
+      <c r="A382" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" s="1" t="s">
+      <c r="A383" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" s="1" t="s">
+      <c r="A384" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" s="1" t="s">
+      <c r="A385" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" s="1" t="s">
+      <c r="A386" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" s="1" t="s">
+      <c r="A387" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" s="1" t="s">
+      <c r="A388" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" s="1" t="s">
+      <c r="A389" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" s="1" t="s">
+      <c r="A390" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" s="1" t="s">
+      <c r="A391" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" s="1" t="s">
+      <c r="A392" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393" s="1" t="s">
+      <c r="A393" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" s="1" t="s">
+      <c r="A394" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" s="1" t="s">
+      <c r="A395" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" s="1" t="s">
+      <c r="A396" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" s="1" t="s">
+      <c r="A397" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" s="1" t="s">
+      <c r="A398" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" s="1" t="s">
+      <c r="A399" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" s="1" t="s">
+      <c r="A400" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" s="1" t="s">
+      <c r="A401" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" s="1" t="s">
+      <c r="A402" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" s="1" t="s">
+      <c r="A403" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" s="1" t="s">
+      <c r="A404" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="1" t="s">
+      <c r="A405" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406" s="1" t="s">
+      <c r="A406" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" s="1" t="s">
+      <c r="A407" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" s="1" t="s">
+      <c r="A408" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" s="1" t="s">
+      <c r="A409" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" s="1" t="s">
+      <c r="A410" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" s="1" t="s">
+      <c r="A411" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" s="1" t="s">
+      <c r="A412" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" s="1" t="s">
+      <c r="A413" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" s="1" t="s">
+      <c r="A414" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415" s="1" t="s">
+      <c r="A415" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416" s="1" t="s">
+      <c r="A416" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" s="1" t="s">
+      <c r="A417" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A418" s="1" t="s">
+      <c r="A418" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" s="1" t="s">
+      <c r="A419" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A420" s="1" t="s">
+      <c r="A420" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" s="1" t="s">
+      <c r="A421" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" s="1" t="s">
+      <c r="A422" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" s="1" t="s">
+      <c r="A423" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" s="1" t="s">
+      <c r="A424" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" s="1" t="s">
+      <c r="A425" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" s="1" t="s">
+      <c r="A426" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" s="1" t="s">
+      <c r="A427" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428" s="1" t="s">
+      <c r="A428" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429" s="1" t="s">
+      <c r="A429" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" s="1" t="s">
+      <c r="A430" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" s="1" t="s">
+      <c r="A431" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" s="1" t="s">
+      <c r="A432" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" s="1" t="s">
+      <c r="A433" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" s="1" t="s">
+      <c r="A434" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" s="1" t="s">
+      <c r="A435" t="s">
         <v>434</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A685" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A729" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A732" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A742" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A757" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A760" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A761" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A762" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A763" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A764" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A765" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A766" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A767" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A769" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A770" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A772" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A773" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A774" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A775" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A776" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A777" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A778" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A779" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A781" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A782" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A784" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A790" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A792" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A793" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A794" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A800" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A801" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A802" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A803" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A804" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A805" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A806" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A807" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A808" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A809" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A810" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A811" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A812" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A813" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A814" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A815" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A816" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A817" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A818" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A819" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A820" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A821" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A822" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A823" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A824" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A825" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A826" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A827" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A828" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A829" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A830" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A831" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A832" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A833" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A834" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A835" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A836" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A837" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A838" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A839" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A840" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A841" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A842" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A843" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A844" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A845" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A846" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A847" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A848" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A849" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A850" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A851" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A852" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A853" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A854" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A855" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A856" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A857" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A858" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A859" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A860" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A861" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A862" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A863" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A864" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A865" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A866" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A867" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A868" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A869" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A870" t="s">
+        <v>869</v>
       </c>
     </row>
   </sheetData>
